--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="subject_list" sheetId="5" r:id="rId5"/>
     <sheet name="subject_list_has_topic_list" sheetId="7" r:id="rId6"/>
     <sheet name="fic" sheetId="8" r:id="rId7"/>
-    <sheet name="activity_details" sheetId="10" r:id="rId8"/>
-    <sheet name="log_content" sheetId="11" r:id="rId9"/>
+    <sheet name="lecturer" sheetId="12" r:id="rId8"/>
+    <sheet name="activity_details" sheetId="10" r:id="rId9"/>
+    <sheet name="log_content" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="500">
   <si>
     <t>student_id</t>
   </si>
@@ -482,9 +483,6 @@
     <t>MIGUEL@fit.edu.ph</t>
   </si>
   <si>
-    <t>EEE</t>
-  </si>
-  <si>
     <t>ARLYN GAEL</t>
   </si>
   <si>
@@ -998,12 +996,6 @@
     <t>jdvalencia@fit.edu.ph</t>
   </si>
   <si>
-    <t>jdvalencia</t>
-  </si>
-  <si>
-    <t>jc</t>
-  </si>
-  <si>
     <t>Angelo Markus</t>
   </si>
   <si>
@@ -1016,12 +1008,6 @@
     <t>abzaguirre@fit.edu.ph</t>
   </si>
   <si>
-    <t>abzaguirre</t>
-  </si>
-  <si>
-    <t>markus</t>
-  </si>
-  <si>
     <t>Allen</t>
   </si>
   <si>
@@ -1034,12 +1020,6 @@
     <t>aptorres@fit.edu.ph</t>
   </si>
   <si>
-    <t>aptorres</t>
-  </si>
-  <si>
-    <t>allen</t>
-  </si>
-  <si>
     <t>Ralph Adrian</t>
   </si>
   <si>
@@ -1052,12 +1032,6 @@
     <t>rbuen@fit.edu.ph</t>
   </si>
   <si>
-    <t>rbuen</t>
-  </si>
-  <si>
-    <t>ralph</t>
-  </si>
-  <si>
     <t>year_level_id</t>
   </si>
   <si>
@@ -1445,18 +1419,6 @@
     <t>Riza3</t>
   </si>
   <si>
-    <t>ceriza</t>
-  </si>
-  <si>
-    <t>meriza</t>
-  </si>
-  <si>
-    <t>eeriza</t>
-  </si>
-  <si>
-    <t>eceriza</t>
-  </si>
-  <si>
     <t>ECE</t>
   </si>
   <si>
@@ -1488,6 +1450,84 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>ceprof</t>
+  </si>
+  <si>
+    <t>meprof</t>
+  </si>
+  <si>
+    <t>eceprof</t>
+  </si>
+  <si>
+    <t>eeprof</t>
+  </si>
+  <si>
+    <t>cefic</t>
+  </si>
+  <si>
+    <t>mefic</t>
+  </si>
+  <si>
+    <t>ecefic</t>
+  </si>
+  <si>
+    <t>eefic</t>
+  </si>
+  <si>
+    <t>lecturer_id</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>lecturer_expertise</t>
+  </si>
+  <si>
+    <t>lecturer_status</t>
+  </si>
+  <si>
+    <t>lecturer_is_confirm</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>CE graduate</t>
+  </si>
+  <si>
+    <t>rbbabaran@gmail.com</t>
+  </si>
+  <si>
+    <t>Marivic</t>
+  </si>
+  <si>
+    <t>Gannaban</t>
+  </si>
+  <si>
+    <t>ME graduate</t>
+  </si>
+  <si>
+    <t>mggatan@gmail.com</t>
+  </si>
+  <si>
+    <t>Rona Mae</t>
+  </si>
+  <si>
+    <t>ECE graduate</t>
+  </si>
+  <si>
+    <t>rgbabaran@gmail.com</t>
+  </si>
+  <si>
+    <t>Ralph Denver</t>
+  </si>
+  <si>
+    <t>EE graduate</t>
+  </si>
+  <si>
+    <t>rbgatan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1517,12 +1557,30 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1538,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1556,6 +1614,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1839,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,6 +1923,7 @@
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1884,7 +1956,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="11">
         <v>201511281</v>
       </c>
       <c r="B2" t="s">
@@ -1913,7 +1985,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
@@ -1942,7 +2014,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
@@ -1971,7 +2043,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
@@ -2000,7 +2072,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="12">
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
@@ -2029,7 +2101,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="13">
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2058,7 +2130,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="14">
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2087,7 +2159,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="13">
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2116,7 +2188,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="14">
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2145,7 +2217,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="14">
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2464,7 +2536,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="15">
         <v>201311694</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2493,7 +2565,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="15">
         <v>201311355</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2522,7 +2594,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="15">
         <v>201412123</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2551,7 +2623,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="15">
         <v>201420066</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2580,7 +2652,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="15">
         <v>201412338</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2609,7 +2681,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="17">
         <v>201412224</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2638,7 +2710,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="17">
         <v>201410821</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2667,7 +2739,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="17">
         <v>201410704</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2696,7 +2768,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="17">
         <v>201412670</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2725,7 +2797,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="17">
         <v>201210843</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2874,22 +2946,22 @@
         <v>201412671</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" t="s">
         <v>154</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" t="s">
-        <v>155</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>53</v>
@@ -2903,22 +2975,22 @@
         <v>201411266</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
         <v>158</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" t="s">
-        <v>159</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>53</v>
@@ -2932,22 +3004,22 @@
         <v>201412315</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" t="s">
         <v>162</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" t="s">
-        <v>163</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>53</v>
@@ -2961,22 +3033,22 @@
         <v>201420024</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
         <v>166</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" t="s">
-        <v>167</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>53</v>
@@ -2986,290 +3058,290 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="16">
         <v>201310916</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>201512691</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>201512691</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>201410367</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>201410367</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>201310584</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>201310584</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>201710117</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>201710117</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" t="s">
         <v>185</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>201710447</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>201710447</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>201710074</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>201710074</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>201710424</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>201710424</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <v>201710100</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>201710100</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>201710453</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>201710453</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" t="s">
-        <v>206</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I49" t="s">
         <v>16</v>
@@ -3280,25 +3352,25 @@
         <v>201710040</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" t="s">
-        <v>210</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
@@ -3309,25 +3381,25 @@
         <v>201710221</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" t="s">
         <v>213</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G51" t="s">
-        <v>214</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -3341,22 +3413,22 @@
         <v>86</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" t="s">
-        <v>217</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -3367,25 +3439,25 @@
         <v>201710152</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" t="s">
         <v>220</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G53" t="s">
-        <v>221</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -3396,25 +3468,25 @@
         <v>201710057</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G54" t="s">
-        <v>225</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -3425,13 +3497,13 @@
         <v>201710032</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>141</v>
@@ -3440,10 +3512,10 @@
         <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -3454,25 +3526,25 @@
         <v>201710042</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G56" t="s">
-        <v>231</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I56" t="s">
         <v>16</v>
@@ -3483,25 +3555,25 @@
         <v>201710400</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G57" t="s">
-        <v>235</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I57" t="s">
         <v>16</v>
@@ -3512,51 +3584,51 @@
         <v>201710458</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>201710365</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>201710365</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" t="s">
         <v>241</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G59" t="s">
-        <v>242</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>94</v>
@@ -3566,26 +3638,26 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="16">
         <v>201011240</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G60" t="s">
         <v>245</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G60" t="s">
-        <v>246</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>94</v>
@@ -3595,26 +3667,26 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="16">
         <v>201710347</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" t="s">
         <v>249</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G61" t="s">
-        <v>250</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>94</v>
@@ -3624,26 +3696,26 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="16">
         <v>201710362</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G62" t="s">
         <v>252</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G62" t="s">
-        <v>253</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>94</v>
@@ -3653,26 +3725,26 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="16">
         <v>201710368</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G63" t="s">
         <v>256</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G63" t="s">
-        <v>257</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>94</v>
@@ -3682,26 +3754,26 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="17">
         <v>201710019</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" t="s">
         <v>260</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G64" t="s">
-        <v>261</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>94</v>
@@ -3711,26 +3783,26 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="17">
         <v>201710338</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" t="s">
         <v>264</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G65" t="s">
-        <v>265</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>94</v>
@@ -3740,26 +3812,26 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="17">
         <v>201710050</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G66" t="s">
         <v>268</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G66" t="s">
-        <v>269</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>94</v>
@@ -3769,17 +3841,17 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="17">
         <v>201710384</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>39</v>
@@ -3788,7 +3860,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>94</v>
@@ -3798,26 +3870,26 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="17">
         <v>201710054</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" t="s">
         <v>275</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G68" t="s">
-        <v>276</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>94</v>
@@ -3831,22 +3903,22 @@
         <v>201710405</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G69" t="s">
         <v>279</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G69" t="s">
-        <v>280</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>94</v>
@@ -3860,22 +3932,22 @@
         <v>201710174</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G70" t="s">
         <v>283</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G70" t="s">
-        <v>284</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>94</v>
@@ -3889,22 +3961,22 @@
         <v>201710260</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" t="s">
         <v>287</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G71" t="s">
-        <v>288</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>94</v>
@@ -3918,22 +3990,22 @@
         <v>201011434</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G72" t="s">
         <v>291</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G72" t="s">
-        <v>292</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>94</v>
@@ -3947,22 +4019,22 @@
         <v>201412795</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" t="s">
         <v>295</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G73" t="s">
-        <v>296</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>94</v>
@@ -3976,22 +4048,22 @@
         <v>201710002</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G74" t="s">
         <v>299</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G74" t="s">
-        <v>300</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>94</v>
@@ -4005,22 +4077,22 @@
         <v>201111222</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G75" t="s">
         <v>302</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G75" t="s">
-        <v>303</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>94</v>
@@ -4034,22 +4106,22 @@
         <v>201710020</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" t="s">
         <v>305</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G76" t="s">
-        <v>306</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>94</v>
@@ -4063,22 +4135,22 @@
         <v>201710076</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G77" t="s">
         <v>309</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G77" t="s">
-        <v>310</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>94</v>
@@ -4092,22 +4164,22 @@
         <v>201710341</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G78" t="s">
         <v>313</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G78" t="s">
-        <v>314</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>94</v>
@@ -4127,12 +4199,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4142,7 +4257,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4154,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -4169,10 +4284,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" t="s">
         <v>317</v>
-      </c>
-      <c r="K1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4180,25 +4295,25 @@
         <v>201111111</v>
       </c>
       <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
         <v>319</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>320</v>
-      </c>
-      <c r="D2" t="s">
-        <v>321</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -4215,25 +4330,25 @@
         <v>201122222</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G3" t="s">
-        <v>329</v>
+        <v>475</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -4250,25 +4365,25 @@
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" t="s">
         <v>476</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" t="s">
-        <v>335</v>
-      </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>476</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -4285,25 +4400,25 @@
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>477</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>477</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -4341,10 +4456,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4352,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4360,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4368,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4376,7 +4491,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4384,7 +4499,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4397,20 +4512,20 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C90"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4418,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4429,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4440,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4451,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4462,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4473,7 +4588,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4484,7 +4599,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4495,7 +4610,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4506,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4517,7 +4632,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4528,7 +4643,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4539,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4550,7 +4665,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4561,7 +4676,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4572,7 +4687,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4583,7 +4698,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4594,7 +4709,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4605,7 +4720,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4616,7 +4731,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4627,7 +4742,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4638,7 +4753,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4649,7 +4764,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4660,7 +4775,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4671,7 +4786,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4682,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4693,7 +4808,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4704,7 +4819,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4715,7 +4830,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4726,7 +4841,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4737,7 +4852,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4748,7 +4863,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4759,7 +4874,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4770,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4781,7 +4896,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4792,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4803,7 +4918,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4814,7 +4929,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4825,7 +4940,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4836,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4847,7 +4962,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4858,7 +4973,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4869,7 +4984,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4880,7 +4995,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4891,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4902,7 +5017,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4913,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4924,7 +5039,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4935,7 +5050,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4946,7 +5061,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4957,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4968,7 +5083,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4979,7 +5094,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4990,7 +5105,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5001,7 +5116,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5012,7 +5127,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5023,7 +5138,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5034,7 +5149,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5045,7 +5160,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5056,7 +5171,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5067,7 +5182,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5078,7 +5193,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5089,7 +5204,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5100,7 +5215,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5111,7 +5226,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5122,7 +5237,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5133,7 +5248,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5144,7 +5259,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5155,7 +5270,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5166,7 +5281,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5177,7 +5292,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5188,7 +5303,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5199,7 +5314,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5210,7 +5325,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5221,7 +5336,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5232,7 +5347,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5243,7 +5358,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5254,7 +5369,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5265,7 +5380,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5276,7 +5391,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5287,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5298,7 +5413,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5309,7 +5424,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5320,7 +5435,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5331,7 +5446,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5342,7 +5457,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5353,7 +5468,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5364,7 +5479,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5375,7 +5490,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5386,7 +5501,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5401,30 +5516,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="56.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5432,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -5449,13 +5567,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -5466,13 +5584,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
@@ -5483,16 +5601,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5500,16 +5618,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5517,16 +5635,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5534,13 +5652,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
@@ -5551,13 +5669,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -5568,13 +5686,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
@@ -5585,16 +5703,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5602,16 +5720,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5619,16 +5737,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5636,13 +5754,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -5653,13 +5771,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -5670,13 +5788,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -5687,16 +5805,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5704,16 +5822,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5721,16 +5839,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5738,16 +5856,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5755,16 +5873,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5772,13 +5890,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
@@ -5789,13 +5907,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -5806,13 +5924,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -5823,16 +5941,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5840,16 +5958,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5857,16 +5975,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5879,17 +5997,17 @@
   <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B256"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7942,7 +8060,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7952,7 +8070,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7976,10 +8094,10 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="J1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7987,22 +8105,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -8019,22 +8137,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -8051,28 +8169,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -8083,22 +8201,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E5" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -8122,6 +8240,197 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>201011111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>201022222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>201033333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>201044444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -8137,10 +8446,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8148,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8156,7 +8465,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8164,7 +8473,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8172,50 +8481,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
     <sheet name="professor" sheetId="2" r:id="rId2"/>
-    <sheet name="year_level" sheetId="3" r:id="rId3"/>
-    <sheet name="topic_list" sheetId="4" r:id="rId4"/>
-    <sheet name="subject_list" sheetId="5" r:id="rId5"/>
-    <sheet name="subject_list_has_topic_list" sheetId="7" r:id="rId6"/>
-    <sheet name="fic" sheetId="8" r:id="rId7"/>
+    <sheet name="fic" sheetId="8" r:id="rId3"/>
+    <sheet name="year_level" sheetId="3" r:id="rId4"/>
+    <sheet name="topic_list" sheetId="4" r:id="rId5"/>
+    <sheet name="subject_list" sheetId="5" r:id="rId6"/>
+    <sheet name="subject_list_has_topic_list" sheetId="7" r:id="rId7"/>
     <sheet name="lecturer" sheetId="12" r:id="rId8"/>
     <sheet name="activity_details" sheetId="10" r:id="rId9"/>
     <sheet name="log_content" sheetId="11" r:id="rId10"/>
@@ -1910,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
@@ -4247,7 +4247,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K5" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4442,6 +4442,190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="8" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4507,7 +4691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
@@ -5512,7 +5696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -5992,7 +6176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B256"/>
   <sheetViews>
@@ -8051,190 +8235,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="8" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>463</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -28,1513 +28,1594 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="527">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>midname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>image_path</t>
+  </si>
+  <si>
+    <t>Mark Denver</t>
+  </si>
+  <si>
+    <t>Gatan</t>
+  </si>
+  <si>
+    <t>Babaran</t>
+  </si>
+  <si>
+    <t>mgbabaran</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>mgbabaran@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>assets/img/profiles/profile.jpg</t>
+  </si>
+  <si>
+    <t>CHRISTIAN JOSEPH</t>
+  </si>
+  <si>
+    <t>BACULI</t>
+  </si>
+  <si>
+    <t>ADRE</t>
+  </si>
+  <si>
+    <t>cbadre</t>
+  </si>
+  <si>
+    <t>adre@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>BERNADETTE</t>
+  </si>
+  <si>
+    <t>ALCARAZ</t>
+  </si>
+  <si>
+    <t>ANGELES</t>
+  </si>
+  <si>
+    <t>baangeles</t>
+  </si>
+  <si>
+    <t>NEHEMIAH</t>
+  </si>
+  <si>
+    <t>ONGTANGCO</t>
+  </si>
+  <si>
+    <t>BALUYUT</t>
+  </si>
+  <si>
+    <t>nobaluyut</t>
+  </si>
+  <si>
+    <t>RYAN CARLO</t>
+  </si>
+  <si>
+    <t>GUNIO</t>
+  </si>
+  <si>
+    <t>BETON</t>
+  </si>
+  <si>
+    <t>rgbeton</t>
+  </si>
+  <si>
+    <t>MIKE LUIS</t>
+  </si>
+  <si>
+    <t>AMIS</t>
+  </si>
+  <si>
+    <t>BOTE</t>
+  </si>
+  <si>
+    <t>mabote</t>
+  </si>
+  <si>
+    <t>SHIELA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>spbustamante</t>
+  </si>
+  <si>
+    <t>VIRGILIO MIGUEL</t>
+  </si>
+  <si>
+    <t>ZORNOSA</t>
+  </si>
+  <si>
+    <t>CASTELO IV</t>
+  </si>
+  <si>
+    <t>vzcastelo</t>
+  </si>
+  <si>
+    <t>AISLINN</t>
+  </si>
+  <si>
+    <t>TOQUERO</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>atcastro</t>
+  </si>
+  <si>
+    <t>CARL</t>
+  </si>
+  <si>
+    <t>MAGNAYON</t>
+  </si>
+  <si>
+    <t>cmcastro</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ROMAR</t>
+  </si>
+  <si>
+    <t>SALERA</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>rsconcepcion</t>
+  </si>
+  <si>
+    <t>KIMPEE COSUHING</t>
+  </si>
+  <si>
+    <t>MASAGCA</t>
+  </si>
+  <si>
+    <t>ABOROT</t>
+  </si>
+  <si>
+    <t>kmaborot</t>
+  </si>
+  <si>
+    <t>JUNAID</t>
+  </si>
+  <si>
+    <t>TAGO</t>
+  </si>
+  <si>
+    <t>ABUBACAR</t>
+  </si>
+  <si>
+    <t>jtabubacar</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ACHACOSO</t>
+  </si>
+  <si>
+    <t>krachacoso</t>
+  </si>
+  <si>
+    <t>JULIUS RODNI</t>
+  </si>
+  <si>
+    <t>FESTIN</t>
+  </si>
+  <si>
+    <t>AHORRO</t>
+  </si>
+  <si>
+    <t>jfahorro</t>
+  </si>
+  <si>
+    <t>KASIAN PAUL</t>
+  </si>
+  <si>
+    <t>CALIXTRO</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>kcalfonso</t>
+  </si>
+  <si>
+    <t>LOUIS DAREL</t>
+  </si>
+  <si>
+    <t>VIDANES</t>
+  </si>
+  <si>
+    <t>ANIEVAS</t>
+  </si>
+  <si>
+    <t>lvanievas</t>
+  </si>
+  <si>
+    <t>RESHMA</t>
+  </si>
+  <si>
+    <t>VIDAL</t>
+  </si>
+  <si>
+    <t>AREVALO</t>
+  </si>
+  <si>
+    <t>rvarevalo</t>
+  </si>
+  <si>
+    <t>MARK JOSEPH</t>
+  </si>
+  <si>
+    <t>GULTIANO</t>
+  </si>
+  <si>
+    <t>ASCAN</t>
+  </si>
+  <si>
+    <t>mgascan</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>ANCHETA</t>
+  </si>
+  <si>
+    <t>LAJERA</t>
+  </si>
+  <si>
+    <t>ANCHETA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>JOHN HENRY</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>SABAN</t>
+  </si>
+  <si>
+    <t>BELLO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JUSTIN</t>
+  </si>
+  <si>
+    <t>BRUN</t>
+  </si>
+  <si>
+    <t>NEBRIJA</t>
+  </si>
+  <si>
+    <t>BRUN@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>GENESE</t>
+  </si>
+  <si>
+    <t>BUENAVENTURA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ROBERT IAN</t>
+  </si>
+  <si>
+    <t>CABRAL</t>
+  </si>
+  <si>
+    <t>DE LEON</t>
+  </si>
+  <si>
+    <t>CABRAL@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>CARL GERARD</t>
+  </si>
+  <si>
+    <t>CADIZ</t>
+  </si>
+  <si>
+    <t>FLORENDO</t>
+  </si>
+  <si>
+    <t>CADIZ@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ROGER</t>
+  </si>
+  <si>
+    <t>CAJES JR.</t>
+  </si>
+  <si>
+    <t>DATALIO</t>
+  </si>
+  <si>
+    <t>CAJES JR.@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>SHAIRA MAE</t>
+  </si>
+  <si>
+    <t>COSTALES</t>
+  </si>
+  <si>
+    <t>BUNAO</t>
+  </si>
+  <si>
+    <t>COSTALES@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>VEA DENISSE</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>LITAN</t>
+  </si>
+  <si>
+    <t>CUEVAS@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>PAUL DERICK</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>NOCHE</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>DALE PATRICK</t>
+  </si>
+  <si>
+    <t>LANUZO</t>
+  </si>
+  <si>
+    <t>TOLENTINO</t>
+  </si>
+  <si>
+    <t>LANUZO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ANGELENE ROCEL</t>
+  </si>
+  <si>
+    <t>LAUNIO</t>
+  </si>
+  <si>
+    <t>BACAYLAN</t>
+  </si>
+  <si>
+    <t>LAUNIO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>GELLY ANN</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>MATA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>PAOLO GIO</t>
+  </si>
+  <si>
+    <t>MENDIOLA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MENDIOLA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>KESIAH MAE</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>CARDONA</t>
+  </si>
+  <si>
+    <t>MIGUEL@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ARLYN GAEL</t>
+  </si>
+  <si>
+    <t>MURILLO</t>
+  </si>
+  <si>
+    <t>MABUTAS</t>
+  </si>
+  <si>
+    <t>MURILLO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>KENNETH ROGER</t>
+  </si>
+  <si>
+    <t>PANTALEON</t>
+  </si>
+  <si>
+    <t>PANALIGAN</t>
+  </si>
+  <si>
+    <t>PANTALEON@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOHN VENN</t>
+  </si>
+  <si>
+    <t>PERANDO</t>
+  </si>
+  <si>
+    <t>MANTALA</t>
+  </si>
+  <si>
+    <t>PERANDO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>RAUL REXOR</t>
+  </si>
+  <si>
+    <t>PIOQUINTO</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>PIOQUINTO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOSE GABRIEL</t>
+  </si>
+  <si>
+    <t>QUEDDENG</t>
+  </si>
+  <si>
+    <t>SUÑGA</t>
+  </si>
+  <si>
+    <t>QUEDDENG@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>MARCO JERIC</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>ROSALES@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JENNY LIZA</t>
+  </si>
+  <si>
+    <t>SUNGA</t>
+  </si>
+  <si>
+    <t>BATALLA</t>
+  </si>
+  <si>
+    <t>SUNGA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>BRIAN PAUL</t>
+  </si>
+  <si>
+    <t>ANDAYA</t>
+  </si>
+  <si>
+    <t>ANDAYA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>HARRY MILLE</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>WANG</t>
+  </si>
+  <si>
+    <t>ANG@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>MARTIN DAVE</t>
+  </si>
+  <si>
+    <t>BADINAS</t>
+  </si>
+  <si>
+    <t>TOBIAS</t>
+  </si>
+  <si>
+    <t>BADINAS@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>MARK JOHNNEL</t>
+  </si>
+  <si>
+    <t>BALEN</t>
+  </si>
+  <si>
+    <t>ALORO</t>
+  </si>
+  <si>
+    <t>BALEN@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>HANS PETER KARL</t>
+  </si>
+  <si>
+    <t>BRUNNER</t>
+  </si>
+  <si>
+    <t>FERRERA</t>
+  </si>
+  <si>
+    <t>BRUNNER@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>DARRYLL D`WAYNE</t>
+  </si>
+  <si>
+    <t>BUSTILLOS</t>
+  </si>
+  <si>
+    <t>CUSTAN</t>
+  </si>
+  <si>
+    <t>BUSTILLOS@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>QAEDA VENETT</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CINCO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>CORTINA III</t>
+  </si>
+  <si>
+    <t>FROYALDE</t>
+  </si>
+  <si>
+    <t>CORTINA III@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>DELA FUENTE</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>DELA FUENTE@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>DELOS REYES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>DELOS REYES@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>OTHIEL MARK</t>
+  </si>
+  <si>
+    <t>ENRIJO</t>
+  </si>
+  <si>
+    <t>PRIETO</t>
+  </si>
+  <si>
+    <t>ENRIJO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>PEACHY ANNE</t>
+  </si>
+  <si>
+    <t>FELICIANO</t>
+  </si>
+  <si>
+    <t>TIGLAO</t>
+  </si>
+  <si>
+    <t>FELICIANO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOSE PAOLO</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>FRANCISCO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>DARYL</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>GUZMAN@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>KHALED</t>
+  </si>
+  <si>
+    <t>HASANEIN</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>HASANEIN@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>SAMI</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>YOUSUF</t>
+  </si>
+  <si>
+    <t>IBRAHIM@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>BYEONGJO</t>
+  </si>
+  <si>
+    <t>KIM</t>
+  </si>
+  <si>
+    <t>KIM@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>MARLON</t>
+  </si>
+  <si>
+    <t>MACABENTA</t>
+  </si>
+  <si>
+    <t>TANGHAL</t>
+  </si>
+  <si>
+    <t>MACABENTA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>MAGADIA</t>
+  </si>
+  <si>
+    <t>CAPISTRANO</t>
+  </si>
+  <si>
+    <t>MAGADIA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>GABRIEL LUIS</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>MARCELO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>MARIE SHEILA</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>MALACAD</t>
+  </si>
+  <si>
+    <t>MARTIN@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ALAIN VINCENT</t>
+  </si>
+  <si>
+    <t>MINDAÑA</t>
+  </si>
+  <si>
+    <t>ELIZAGA</t>
+  </si>
+  <si>
+    <t>MINDAÑA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>GERSHOM NORMAN</t>
+  </si>
+  <si>
+    <t>MONTES</t>
+  </si>
+  <si>
+    <t>AJEDO</t>
+  </si>
+  <si>
+    <t>MONTES@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>APPLE JOY</t>
+  </si>
+  <si>
+    <t>OBENARIO</t>
+  </si>
+  <si>
+    <t>CASUNDIN</t>
+  </si>
+  <si>
+    <t>OBENARIO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOAN STEPHEN</t>
+  </si>
+  <si>
+    <t>DUQUE</t>
+  </si>
+  <si>
+    <t>PAZ@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>FERDINAND GABRIEL</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>ALHAMBRA</t>
+  </si>
+  <si>
+    <t>PERALTA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>DALE</t>
+  </si>
+  <si>
+    <t>POLICARPIO</t>
+  </si>
+  <si>
+    <t>REGOSO</t>
+  </si>
+  <si>
+    <t>POLICARPIO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JAN LESTER</t>
+  </si>
+  <si>
+    <t>QUINTOS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>QUINTOS@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>POJUER KENNETH</t>
+  </si>
+  <si>
+    <t>REYES IV</t>
+  </si>
+  <si>
+    <t>CABALLES</t>
+  </si>
+  <si>
+    <t>REYES IV@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOHN MICHAEL</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>CATURA</t>
+  </si>
+  <si>
+    <t>SANTOS@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>KEN NICOLE</t>
+  </si>
+  <si>
+    <t>SESE</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>SESE@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JEMARSON</t>
+  </si>
+  <si>
+    <t>TIU</t>
+  </si>
+  <si>
+    <t>BERNADINO</t>
+  </si>
+  <si>
+    <t>TIU@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOSEF ANGELO</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>TU@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>DAIAN</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>VILLA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ANSLEY JANSON</t>
+  </si>
+  <si>
+    <t>YANGA</t>
+  </si>
+  <si>
+    <t>DELA CRUZ</t>
+  </si>
+  <si>
+    <t>YANGA@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>JOHN MCLEIGH</t>
+  </si>
+  <si>
+    <t>YOTOKO</t>
+  </si>
+  <si>
+    <t>REYNOSA</t>
+  </si>
+  <si>
+    <t>YOTOKO@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>professor_id</t>
+  </si>
+  <si>
+    <t>professor_department</t>
+  </si>
+  <si>
+    <t>professor_feedback_active</t>
+  </si>
+  <si>
+    <t>professor_status</t>
+  </si>
+  <si>
+    <t>Juan Carlo</t>
+  </si>
+  <si>
+    <t>De Regla</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>jdvalencia@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>Angelo Markus</t>
+  </si>
+  <si>
+    <t>Buan</t>
+  </si>
+  <si>
+    <t>Zaguirre</t>
+  </si>
+  <si>
+    <t>abzaguirre@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Pogi</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>aptorres@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>Ralph Adrian</t>
+  </si>
+  <si>
+    <t>Cute</t>
+  </si>
+  <si>
+    <t>Buen</t>
+  </si>
+  <si>
+    <t>rbuen@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>year_level_id</t>
+  </si>
+  <si>
+    <t>year_level_name</t>
+  </si>
+  <si>
+    <t>1st year</t>
+  </si>
+  <si>
+    <t>2nd year</t>
+  </si>
+  <si>
+    <t>3rd year</t>
+  </si>
+  <si>
+    <t>4th year</t>
+  </si>
+  <si>
+    <t>Terminal year</t>
+  </si>
+  <si>
+    <t>topic_list_id</t>
+  </si>
+  <si>
+    <t>topic_list_name</t>
+  </si>
+  <si>
+    <t>topic_list_is_active</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Plane and Spherical Geometry</t>
+  </si>
+  <si>
+    <t>Plane and Spherical Trigo</t>
+  </si>
+  <si>
+    <t>Analytic Geometry</t>
+  </si>
+  <si>
+    <t>Differential Calculus</t>
+  </si>
+  <si>
+    <t>Integral Calculus</t>
+  </si>
+  <si>
+    <t>Differential Equation</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Survey 1</t>
+  </si>
+  <si>
+    <t>Survey 2</t>
+  </si>
+  <si>
+    <t>Survey 3</t>
+  </si>
+  <si>
+    <t>Hydraulics 1</t>
+  </si>
+  <si>
+    <t>Hydraulics 2</t>
+  </si>
+  <si>
+    <t>Hydraulics 3</t>
+  </si>
+  <si>
+    <t>hydraulics 4</t>
+  </si>
+  <si>
+    <t>Geotech 2</t>
+  </si>
+  <si>
+    <t>Geotech 3</t>
+  </si>
+  <si>
+    <t>Geotech 4</t>
+  </si>
+  <si>
+    <t>Mechanics 1</t>
+  </si>
+  <si>
+    <t>Mechanics 2</t>
+  </si>
+  <si>
+    <t>Mechanics 3</t>
+  </si>
+  <si>
+    <t>Strength 1</t>
+  </si>
+  <si>
+    <t>Strength 2</t>
+  </si>
+  <si>
+    <t>Theory 1</t>
+  </si>
+  <si>
+    <t>Theory 2</t>
+  </si>
+  <si>
+    <t>Theory 3</t>
+  </si>
+  <si>
+    <t>Steel 1</t>
+  </si>
+  <si>
+    <t>Steel 2</t>
+  </si>
+  <si>
+    <t>Steel 3</t>
+  </si>
+  <si>
+    <t>RCD 1</t>
+  </si>
+  <si>
+    <t>RCD 2</t>
+  </si>
+  <si>
+    <t>RCD 3</t>
+  </si>
+  <si>
+    <t>Advance Math</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Strength of Materials</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Hydraulics</t>
+  </si>
+  <si>
+    <t>Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>Engineering Econmy</t>
+  </si>
+  <si>
+    <t>Philippine Electrical Code</t>
+  </si>
+  <si>
+    <t>Laws and Ethics</t>
+  </si>
+  <si>
+    <t>Computer Fundamentals</t>
+  </si>
+  <si>
+    <t>Circuits 1</t>
+  </si>
+  <si>
+    <t>Circuits 2</t>
+  </si>
+  <si>
+    <t>Circuits 3</t>
+  </si>
+  <si>
+    <t>DC Machine</t>
+  </si>
+  <si>
+    <t>AC Machinces</t>
+  </si>
+  <si>
+    <t>Aparatus and Equipment</t>
+  </si>
+  <si>
+    <t>Power Systems</t>
+  </si>
+  <si>
+    <t>Illumination</t>
+  </si>
+  <si>
+    <t>Transient</t>
+  </si>
+  <si>
+    <t>Power Plant</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Vector Analysis and Electromagnets</t>
+  </si>
+  <si>
+    <t>Engineering Economy</t>
+  </si>
+  <si>
+    <t>Electrical Elements</t>
+  </si>
+  <si>
+    <t>DC and AC circuits</t>
+  </si>
+  <si>
+    <t>Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t>Microelectronics</t>
+  </si>
+  <si>
+    <t>Semiconductor Devices</t>
+  </si>
+  <si>
+    <t>Logic Circuits</t>
+  </si>
+  <si>
+    <t>Industrial Electronics and Power Supply</t>
+  </si>
+  <si>
+    <t>Radiowave Communications</t>
+  </si>
+  <si>
+    <t>Transmission Lines and Waveguides</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Microwave Communications</t>
+  </si>
+  <si>
+    <t>analog Modulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Communications </t>
+  </si>
+  <si>
+    <t>Fiber Oprics</t>
+  </si>
+  <si>
+    <t>Trigonometry</t>
+  </si>
+  <si>
+    <t>Solid Mensuration</t>
+  </si>
+  <si>
+    <t>Statics and Dynamics</t>
+  </si>
+  <si>
+    <t>Heat Transfer</t>
+  </si>
+  <si>
+    <t>Combustion Engineering</t>
+  </si>
+  <si>
+    <t>Machine Elements</t>
+  </si>
+  <si>
+    <t>Machine Shop Theory</t>
+  </si>
+  <si>
+    <t>Material Science Engineering</t>
+  </si>
+  <si>
+    <t>Fluid Machinery</t>
+  </si>
+  <si>
+    <t>Combustion Engine</t>
+  </si>
+  <si>
+    <t>Refrigeration, Heating, Ventilation and Airconditioning</t>
+  </si>
+  <si>
+    <t>Industrial Process</t>
+  </si>
+  <si>
+    <t>Safety Engineering and Intrumentation</t>
+  </si>
+  <si>
+    <t>Industrial Plant Engineering</t>
+  </si>
+  <si>
+    <t>Power Plant Engineering</t>
+  </si>
+  <si>
+    <t>Vibration Engineering</t>
+  </si>
+  <si>
+    <t>subject_list_id</t>
+  </si>
+  <si>
+    <t>subject_list_name</t>
+  </si>
+  <si>
+    <t>subject_list_department</t>
+  </si>
+  <si>
+    <t>subject_list_is_active</t>
+  </si>
+  <si>
+    <t>subject_list_description</t>
+  </si>
+  <si>
+    <t>MATHEMATICS, SURVEYING AND TRANSPORTATION ENGINEERING</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HYDRAULICS AND GEOTECHNICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>STRUCTURAL ENGINEERING AND CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>ELECTRICAL ENGINEERING PROFESSIONAL SUBJECTS</t>
+  </si>
+  <si>
+    <t>ENGINEERING SCIENCES AND ALLIED SUBJECTS</t>
+  </si>
+  <si>
+    <t>ELECTRONICS ENGINEERING</t>
+  </si>
+  <si>
+    <t>GENERAL ENGINEERING AND APPLIED SCIENCES</t>
+  </si>
+  <si>
+    <t>ELECTRONICS SYSTEMS AND TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>MATHEMATICS, ENGINEERING ECONOMICS AND BASIC ENGINEERING SCIENCES</t>
+  </si>
+  <si>
+    <t>MACHINE DESIGN, MATERIALS, AND SHOP PRACTICE</t>
+  </si>
+  <si>
+    <t>POWER AND INDUSTRIAL PLANT ENGINEERING</t>
+  </si>
+  <si>
+    <t>fic_id</t>
+  </si>
+  <si>
+    <t>fic_department</t>
+  </si>
+  <si>
+    <t>fic_status</t>
+  </si>
+  <si>
+    <t>Riza</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Malaya</t>
+  </si>
+  <si>
+    <t>rbmalaya@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>Riza1</t>
+  </si>
+  <si>
+    <t>Riza2</t>
+  </si>
+  <si>
+    <t>Riza3</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>activity_details_id</t>
+  </si>
+  <si>
+    <t>activity_details_name</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Seatwork</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>log_content_id</t>
+  </si>
+  <si>
+    <t>log_content_name</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>ceprof</t>
+  </si>
+  <si>
+    <t>meprof</t>
+  </si>
+  <si>
+    <t>eceprof</t>
+  </si>
+  <si>
+    <t>eeprof</t>
+  </si>
+  <si>
+    <t>cefic</t>
+  </si>
+  <si>
+    <t>mefic</t>
+  </si>
+  <si>
+    <t>ecefic</t>
+  </si>
+  <si>
+    <t>eefic</t>
+  </si>
+  <si>
+    <t>lecturer_id</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>lecturer_expertise</t>
+  </si>
+  <si>
+    <t>lecturer_status</t>
+  </si>
+  <si>
+    <t>lecturer_is_confirm</t>
+  </si>
   <si>
     <t>student_id</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>midname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>image_path</t>
-  </si>
-  <si>
-    <t>Mark Denver</t>
-  </si>
-  <si>
-    <t>Gatan</t>
-  </si>
-  <si>
-    <t>Babaran</t>
-  </si>
-  <si>
-    <t>mgbabaran</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>mgbabaran@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>assets/img/profiles/profile.jpg</t>
-  </si>
-  <si>
-    <t>CHRISTIAN JOSEPH</t>
-  </si>
-  <si>
-    <t>BACULI</t>
-  </si>
-  <si>
-    <t>ADRE</t>
-  </si>
-  <si>
-    <t>cbadre</t>
-  </si>
-  <si>
-    <t>adre@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>BERNADETTE</t>
-  </si>
-  <si>
-    <t>ALCARAZ</t>
-  </si>
-  <si>
-    <t>ANGELES</t>
-  </si>
-  <si>
-    <t>baangeles</t>
-  </si>
-  <si>
-    <t>NEHEMIAH</t>
-  </si>
-  <si>
-    <t>ONGTANGCO</t>
-  </si>
-  <si>
-    <t>BALUYUT</t>
-  </si>
-  <si>
-    <t>nobaluyut</t>
-  </si>
-  <si>
-    <t>RYAN CARLO</t>
-  </si>
-  <si>
-    <t>GUNIO</t>
-  </si>
-  <si>
-    <t>BETON</t>
-  </si>
-  <si>
-    <t>rgbeton</t>
-  </si>
-  <si>
-    <t>MIKE LUIS</t>
-  </si>
-  <si>
-    <t>AMIS</t>
-  </si>
-  <si>
-    <t>BOTE</t>
-  </si>
-  <si>
-    <t>mabote</t>
-  </si>
-  <si>
-    <t>SHIELA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>spbustamante</t>
-  </si>
-  <si>
-    <t>VIRGILIO MIGUEL</t>
-  </si>
-  <si>
-    <t>ZORNOSA</t>
-  </si>
-  <si>
-    <t>CASTELO IV</t>
-  </si>
-  <si>
-    <t>vzcastelo</t>
-  </si>
-  <si>
-    <t>AISLINN</t>
-  </si>
-  <si>
-    <t>TOQUERO</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>atcastro</t>
-  </si>
-  <si>
-    <t>CARL</t>
-  </si>
-  <si>
-    <t>MAGNAYON</t>
-  </si>
-  <si>
-    <t>cmcastro</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>ROMAR</t>
-  </si>
-  <si>
-    <t>SALERA</t>
-  </si>
-  <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>rsconcepcion</t>
-  </si>
-  <si>
-    <t>KIMPEE COSUHING</t>
-  </si>
-  <si>
-    <t>MASAGCA</t>
-  </si>
-  <si>
-    <t>ABOROT</t>
-  </si>
-  <si>
-    <t>kmaborot</t>
-  </si>
-  <si>
-    <t>JUNAID</t>
-  </si>
-  <si>
-    <t>TAGO</t>
-  </si>
-  <si>
-    <t>ABUBACAR</t>
-  </si>
-  <si>
-    <t>jtabubacar</t>
-  </si>
-  <si>
-    <t>KEVIN</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ACHACOSO</t>
-  </si>
-  <si>
-    <t>krachacoso</t>
-  </si>
-  <si>
-    <t>JULIUS RODNI</t>
-  </si>
-  <si>
-    <t>FESTIN</t>
-  </si>
-  <si>
-    <t>AHORRO</t>
-  </si>
-  <si>
-    <t>jfahorro</t>
-  </si>
-  <si>
-    <t>KASIAN PAUL</t>
-  </si>
-  <si>
-    <t>CALIXTRO</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>kcalfonso</t>
-  </si>
-  <si>
-    <t>LOUIS DAREL</t>
-  </si>
-  <si>
-    <t>VIDANES</t>
-  </si>
-  <si>
-    <t>ANIEVAS</t>
-  </si>
-  <si>
-    <t>lvanievas</t>
-  </si>
-  <si>
-    <t>RESHMA</t>
-  </si>
-  <si>
-    <t>VIDAL</t>
-  </si>
-  <si>
-    <t>AREVALO</t>
-  </si>
-  <si>
-    <t>rvarevalo</t>
-  </si>
-  <si>
-    <t>MARK JOSEPH</t>
-  </si>
-  <si>
-    <t>GULTIANO</t>
-  </si>
-  <si>
-    <t>ASCAN</t>
-  </si>
-  <si>
-    <t>mgascan</t>
-  </si>
-  <si>
-    <t>MICHAEL</t>
-  </si>
-  <si>
-    <t>ANCHETA</t>
-  </si>
-  <si>
-    <t>LAJERA</t>
-  </si>
-  <si>
-    <t>ANCHETA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>JOHN HENRY</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>SABAN</t>
-  </si>
-  <si>
-    <t>BELLO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JUSTIN</t>
-  </si>
-  <si>
-    <t>BRUN</t>
-  </si>
-  <si>
-    <t>NEBRIJA</t>
-  </si>
-  <si>
-    <t>BRUN@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>BUENAVENTURA</t>
-  </si>
-  <si>
-    <t>GENESE</t>
-  </si>
-  <si>
-    <t>BUENAVENTURA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>ROBERT IAN</t>
-  </si>
-  <si>
-    <t>CABRAL</t>
-  </si>
-  <si>
-    <t>DE LEON</t>
-  </si>
-  <si>
-    <t>CABRAL@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>CARL GERARD</t>
-  </si>
-  <si>
-    <t>CADIZ</t>
-  </si>
-  <si>
-    <t>FLORENDO</t>
-  </si>
-  <si>
-    <t>CADIZ@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>ROGER</t>
-  </si>
-  <si>
-    <t>CAJES JR.</t>
-  </si>
-  <si>
-    <t>DATALIO</t>
-  </si>
-  <si>
-    <t>CAJES JR.@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>SHAIRA MAE</t>
-  </si>
-  <si>
-    <t>COSTALES</t>
-  </si>
-  <si>
-    <t>BUNAO</t>
-  </si>
-  <si>
-    <t>COSTALES@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>VEA DENISSE</t>
-  </si>
-  <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>LITAN</t>
-  </si>
-  <si>
-    <t>CUEVAS@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>PAUL DERICK</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>NOCHE</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>DALE PATRICK</t>
-  </si>
-  <si>
-    <t>LANUZO</t>
-  </si>
-  <si>
-    <t>TOLENTINO</t>
-  </si>
-  <si>
-    <t>LANUZO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>ANGELENE ROCEL</t>
-  </si>
-  <si>
-    <t>LAUNIO</t>
-  </si>
-  <si>
-    <t>BACAYLAN</t>
-  </si>
-  <si>
-    <t>LAUNIO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>GELLY ANN</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>FRANCISCO</t>
-  </si>
-  <si>
-    <t>MATA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>PAOLO GIO</t>
-  </si>
-  <si>
-    <t>MENDIOLA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MENDIOLA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>KESIAH MAE</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>CARDONA</t>
-  </si>
-  <si>
-    <t>MIGUEL@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>ARLYN GAEL</t>
-  </si>
-  <si>
-    <t>MURILLO</t>
-  </si>
-  <si>
-    <t>MABUTAS</t>
-  </si>
-  <si>
-    <t>MURILLO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>KENNETH ROGER</t>
-  </si>
-  <si>
-    <t>PANTALEON</t>
-  </si>
-  <si>
-    <t>PANALIGAN</t>
-  </si>
-  <si>
-    <t>PANTALEON@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOHN VENN</t>
-  </si>
-  <si>
-    <t>PERANDO</t>
-  </si>
-  <si>
-    <t>MANTALA</t>
-  </si>
-  <si>
-    <t>PERANDO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>RAUL REXOR</t>
-  </si>
-  <si>
-    <t>PIOQUINTO</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>PIOQUINTO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOSE GABRIEL</t>
-  </si>
-  <si>
-    <t>QUEDDENG</t>
-  </si>
-  <si>
-    <t>SUÑGA</t>
-  </si>
-  <si>
-    <t>QUEDDENG@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>MARCO JERIC</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>ROSALES@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JENNY LIZA</t>
-  </si>
-  <si>
-    <t>SUNGA</t>
-  </si>
-  <si>
-    <t>BATALLA</t>
-  </si>
-  <si>
-    <t>SUNGA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>BRIAN PAUL</t>
-  </si>
-  <si>
-    <t>ANDAYA</t>
-  </si>
-  <si>
-    <t>ANDAYA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>HARRY MILLE</t>
-  </si>
-  <si>
-    <t>ANG</t>
-  </si>
-  <si>
-    <t>WANG</t>
-  </si>
-  <si>
-    <t>ANG@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>MARTIN DAVE</t>
-  </si>
-  <si>
-    <t>BADINAS</t>
-  </si>
-  <si>
-    <t>TOBIAS</t>
-  </si>
-  <si>
-    <t>BADINAS@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>MARK JOHNNEL</t>
-  </si>
-  <si>
-    <t>BALEN</t>
-  </si>
-  <si>
-    <t>ALORO</t>
-  </si>
-  <si>
-    <t>BALEN@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>HANS PETER KARL</t>
-  </si>
-  <si>
-    <t>BRUNNER</t>
-  </si>
-  <si>
-    <t>FERRERA</t>
-  </si>
-  <si>
-    <t>BRUNNER@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>DARRYLL D`WAYNE</t>
-  </si>
-  <si>
-    <t>BUSTILLOS</t>
-  </si>
-  <si>
-    <t>CUSTAN</t>
-  </si>
-  <si>
-    <t>BUSTILLOS@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>QAEDA VENETT</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CINCO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>BENJAMIN</t>
-  </si>
-  <si>
-    <t>CORTINA III</t>
-  </si>
-  <si>
-    <t>FROYALDE</t>
-  </si>
-  <si>
-    <t>CORTINA III@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>DELA FUENTE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>DELA FUENTE@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>DELOS REYES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>DELOS REYES@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>OTHIEL MARK</t>
-  </si>
-  <si>
-    <t>ENRIJO</t>
-  </si>
-  <si>
-    <t>PRIETO</t>
-  </si>
-  <si>
-    <t>ENRIJO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>PEACHY ANNE</t>
-  </si>
-  <si>
-    <t>FELICIANO</t>
-  </si>
-  <si>
-    <t>TIGLAO</t>
-  </si>
-  <si>
-    <t>FELICIANO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOSE PAOLO</t>
-  </si>
-  <si>
-    <t>GONZALES</t>
-  </si>
-  <si>
-    <t>FRANCISCO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>DARYL</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>GUZMAN@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>KHALED</t>
-  </si>
-  <si>
-    <t>HASANEIN</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>HASANEIN@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>SAMI</t>
-  </si>
-  <si>
-    <t>IBRAHIM</t>
-  </si>
-  <si>
-    <t>YOUSUF</t>
-  </si>
-  <si>
-    <t>IBRAHIM@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>BYEONGJO</t>
-  </si>
-  <si>
-    <t>KIM</t>
-  </si>
-  <si>
-    <t>KIM@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>MARLON</t>
-  </si>
-  <si>
-    <t>MACABENTA</t>
-  </si>
-  <si>
-    <t>TANGHAL</t>
-  </si>
-  <si>
-    <t>MACABENTA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>BRIAN</t>
-  </si>
-  <si>
-    <t>MAGADIA</t>
-  </si>
-  <si>
-    <t>CAPISTRANO</t>
-  </si>
-  <si>
-    <t>MAGADIA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>GABRIEL LUIS</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>MARCELO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>MARIE SHEILA</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>MALACAD</t>
-  </si>
-  <si>
-    <t>MARTIN@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>ALAIN VINCENT</t>
-  </si>
-  <si>
-    <t>MINDAÑA</t>
-  </si>
-  <si>
-    <t>ELIZAGA</t>
-  </si>
-  <si>
-    <t>MINDAÑA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>GERSHOM NORMAN</t>
-  </si>
-  <si>
-    <t>MONTES</t>
-  </si>
-  <si>
-    <t>AJEDO</t>
-  </si>
-  <si>
-    <t>MONTES@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>APPLE JOY</t>
-  </si>
-  <si>
-    <t>OBENARIO</t>
-  </si>
-  <si>
-    <t>CASUNDIN</t>
-  </si>
-  <si>
-    <t>OBENARIO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOAN STEPHEN</t>
-  </si>
-  <si>
-    <t>DUQUE</t>
-  </si>
-  <si>
-    <t>PAZ@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>FERDINAND GABRIEL</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>ALHAMBRA</t>
-  </si>
-  <si>
-    <t>PERALTA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>DALE</t>
-  </si>
-  <si>
-    <t>POLICARPIO</t>
-  </si>
-  <si>
-    <t>REGOSO</t>
-  </si>
-  <si>
-    <t>POLICARPIO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JAN LESTER</t>
-  </si>
-  <si>
-    <t>QUINTOS</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>QUINTOS@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>POJUER KENNETH</t>
-  </si>
-  <si>
-    <t>REYES IV</t>
-  </si>
-  <si>
-    <t>CABALLES</t>
-  </si>
-  <si>
-    <t>REYES IV@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOHN MICHAEL</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>CATURA</t>
-  </si>
-  <si>
-    <t>SANTOS@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>KEN NICOLE</t>
-  </si>
-  <si>
-    <t>SESE</t>
-  </si>
-  <si>
-    <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>SESE@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JEMARSON</t>
-  </si>
-  <si>
-    <t>TIU</t>
-  </si>
-  <si>
-    <t>BERNADINO</t>
-  </si>
-  <si>
-    <t>TIU@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOSEF ANGELO</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>TU@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>DAIAN</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>VILLA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>ANSLEY JANSON</t>
-  </si>
-  <si>
-    <t>YANGA</t>
-  </si>
-  <si>
-    <t>DELA CRUZ</t>
-  </si>
-  <si>
-    <t>YANGA@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>JOHN MCLEIGH</t>
-  </si>
-  <si>
-    <t>YOTOKO</t>
-  </si>
-  <si>
-    <t>REYNOSA</t>
-  </si>
-  <si>
-    <t>YOTOKO@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>professor_id</t>
-  </si>
-  <si>
-    <t>professor_department</t>
-  </si>
-  <si>
-    <t>professor_feedback_active</t>
-  </si>
-  <si>
-    <t>professor_status</t>
-  </si>
-  <si>
-    <t>Juan Carlo</t>
-  </si>
-  <si>
-    <t>De Regla</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>jdvalencia@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>Angelo Markus</t>
-  </si>
-  <si>
-    <t>Buan</t>
-  </si>
-  <si>
-    <t>Zaguirre</t>
-  </si>
-  <si>
-    <t>abzaguirre@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Pogi</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>aptorres@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>Ralph Adrian</t>
-  </si>
-  <si>
-    <t>Cute</t>
-  </si>
-  <si>
-    <t>Buen</t>
-  </si>
-  <si>
-    <t>rbuen@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>year_level_id</t>
-  </si>
-  <si>
-    <t>year_level_name</t>
-  </si>
-  <si>
-    <t>1st year</t>
-  </si>
-  <si>
-    <t>2nd year</t>
-  </si>
-  <si>
-    <t>3rd year</t>
-  </si>
-  <si>
-    <t>4th year</t>
-  </si>
-  <si>
-    <t>Terminal year</t>
-  </si>
-  <si>
-    <t>topic_list_id</t>
-  </si>
-  <si>
-    <t>topic_list_name</t>
-  </si>
-  <si>
-    <t>topic_list_is_active</t>
-  </si>
-  <si>
-    <t>Algebra</t>
-  </si>
-  <si>
-    <t>Plane and Spherical Geometry</t>
-  </si>
-  <si>
-    <t>Plane and Spherical Trigo</t>
-  </si>
-  <si>
-    <t>Analytic Geometry</t>
-  </si>
-  <si>
-    <t>Differential Calculus</t>
-  </si>
-  <si>
-    <t>Integral Calculus</t>
-  </si>
-  <si>
-    <t>Differential Equation</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>Survey 1</t>
-  </si>
-  <si>
-    <t>Survey 2</t>
-  </si>
-  <si>
-    <t>Survey 3</t>
-  </si>
-  <si>
-    <t>Hydraulics 1</t>
-  </si>
-  <si>
-    <t>Hydraulics 2</t>
-  </si>
-  <si>
-    <t>Hydraulics 3</t>
-  </si>
-  <si>
-    <t>hydraulics 4</t>
-  </si>
-  <si>
-    <t>Geotech 2</t>
-  </si>
-  <si>
-    <t>Geotech 3</t>
-  </si>
-  <si>
-    <t>Geotech 4</t>
-  </si>
-  <si>
-    <t>Mechanics 1</t>
-  </si>
-  <si>
-    <t>Mechanics 2</t>
-  </si>
-  <si>
-    <t>Mechanics 3</t>
-  </si>
-  <si>
-    <t>Strength 1</t>
-  </si>
-  <si>
-    <t>Strength 2</t>
-  </si>
-  <si>
-    <t>Theory 1</t>
-  </si>
-  <si>
-    <t>Theory 2</t>
-  </si>
-  <si>
-    <t>Theory 3</t>
-  </si>
-  <si>
-    <t>Steel 1</t>
-  </si>
-  <si>
-    <t>Steel 2</t>
-  </si>
-  <si>
-    <t>Steel 3</t>
-  </si>
-  <si>
-    <t>RCD 1</t>
-  </si>
-  <si>
-    <t>RCD 2</t>
-  </si>
-  <si>
-    <t>RCD 3</t>
-  </si>
-  <si>
-    <t>Advance Math</t>
-  </si>
-  <si>
-    <t>Probability and Statistics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mechanics</t>
-  </si>
-  <si>
-    <t>Strength of Materials</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>Hydraulics</t>
-  </si>
-  <si>
-    <t>Fluid Mechanics</t>
-  </si>
-  <si>
-    <t>Engineering Econmy</t>
-  </si>
-  <si>
-    <t>Philippine Electrical Code</t>
-  </si>
-  <si>
-    <t>Laws and Ethics</t>
-  </si>
-  <si>
-    <t>Computer Fundamentals</t>
-  </si>
-  <si>
-    <t>Circuits 1</t>
-  </si>
-  <si>
-    <t>Circuits 2</t>
-  </si>
-  <si>
-    <t>Circuits 3</t>
-  </si>
-  <si>
-    <t>DC Machine</t>
-  </si>
-  <si>
-    <t>AC Machinces</t>
-  </si>
-  <si>
-    <t>Aparatus and Equipment</t>
-  </si>
-  <si>
-    <t>Power Systems</t>
-  </si>
-  <si>
-    <t>Illumination</t>
-  </si>
-  <si>
-    <t>Transient</t>
-  </si>
-  <si>
-    <t>Power Plant</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Vector Analysis and Electromagnets</t>
-  </si>
-  <si>
-    <t>Engineering Economy</t>
-  </si>
-  <si>
-    <t>Electrical Elements</t>
-  </si>
-  <si>
-    <t>DC and AC circuits</t>
-  </si>
-  <si>
-    <t>Electricity and Magnetism</t>
-  </si>
-  <si>
-    <t>Microelectronics</t>
-  </si>
-  <si>
-    <t>Semiconductor Devices</t>
-  </si>
-  <si>
-    <t>Logic Circuits</t>
-  </si>
-  <si>
-    <t>Industrial Electronics and Power Supply</t>
-  </si>
-  <si>
-    <t>Radiowave Communications</t>
-  </si>
-  <si>
-    <t>Transmission Lines and Waveguides</t>
-  </si>
-  <si>
-    <t>Antenna</t>
-  </si>
-  <si>
-    <t>Microwave Communications</t>
-  </si>
-  <si>
-    <t>analog Modulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Communications </t>
-  </si>
-  <si>
-    <t>Fiber Oprics</t>
-  </si>
-  <si>
-    <t>Trigonometry</t>
-  </si>
-  <si>
-    <t>Solid Mensuration</t>
-  </si>
-  <si>
-    <t>Statics and Dynamics</t>
-  </si>
-  <si>
-    <t>Heat Transfer</t>
-  </si>
-  <si>
-    <t>Combustion Engineering</t>
-  </si>
-  <si>
-    <t>Machine Elements</t>
-  </si>
-  <si>
-    <t>Machine Shop Theory</t>
-  </si>
-  <si>
-    <t>Material Science Engineering</t>
-  </si>
-  <si>
-    <t>Fluid Machinery</t>
-  </si>
-  <si>
-    <t>Combustion Engine</t>
-  </si>
-  <si>
-    <t>Refrigeration, Heating, Ventilation and Airconditioning</t>
-  </si>
-  <si>
-    <t>Industrial Process</t>
-  </si>
-  <si>
-    <t>Safety Engineering and Intrumentation</t>
-  </si>
-  <si>
-    <t>Industrial Plant Engineering</t>
-  </si>
-  <si>
-    <t>Power Plant Engineering</t>
-  </si>
-  <si>
-    <t>Vibration Engineering</t>
-  </si>
-  <si>
-    <t>subject_list_id</t>
-  </si>
-  <si>
-    <t>subject_list_name</t>
-  </si>
-  <si>
-    <t>subject_list_department</t>
-  </si>
-  <si>
-    <t>subject_list_is_active</t>
-  </si>
-  <si>
-    <t>subject_list_description</t>
-  </si>
-  <si>
-    <t>MATHEMATICS, SURVEYING AND TRANSPORTATION ENGINEERING</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>HYDRAULICS AND GEOTECHNICAL ENGINEERING</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>STRUCTURAL ENGINEERING AND CONSTRUCTION</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>ELECTRICAL ENGINEERING PROFESSIONAL SUBJECTS</t>
-  </si>
-  <si>
-    <t>ENGINEERING SCIENCES AND ALLIED SUBJECTS</t>
-  </si>
-  <si>
-    <t>ELECTRONICS ENGINEERING</t>
-  </si>
-  <si>
-    <t>GENERAL ENGINEERING AND APPLIED SCIENCES</t>
-  </si>
-  <si>
-    <t>ELECTRONICS SYSTEMS AND TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>MATHEMATICS, ENGINEERING ECONOMICS AND BASIC ENGINEERING SCIENCES</t>
-  </si>
-  <si>
-    <t>MACHINE DESIGN, MATERIALS, AND SHOP PRACTICE</t>
-  </si>
-  <si>
-    <t>POWER AND INDUSTRIAL PLANT ENGINEERING</t>
-  </si>
-  <si>
-    <t>fic_id</t>
-  </si>
-  <si>
-    <t>fic_department</t>
-  </si>
-  <si>
-    <t>fic_status</t>
-  </si>
-  <si>
-    <t>Riza</t>
-  </si>
-  <si>
-    <t>Blossom</t>
-  </si>
-  <si>
-    <t>Malaya</t>
-  </si>
-  <si>
-    <t>rbmalaya@fit.edu.ph</t>
-  </si>
-  <si>
-    <t>Riza1</t>
-  </si>
-  <si>
-    <t>Riza2</t>
-  </si>
-  <si>
-    <t>Riza3</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>activity_details_id</t>
-  </si>
-  <si>
-    <t>activity_details_name</t>
-  </si>
-  <si>
-    <t>Lecture</t>
-  </si>
-  <si>
-    <t>Seatwork</t>
-  </si>
-  <si>
-    <t>Quiz</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>log_content_id</t>
-  </si>
-  <si>
-    <t>log_content_name</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>ceprof</t>
-  </si>
-  <si>
-    <t>meprof</t>
-  </si>
-  <si>
-    <t>eceprof</t>
-  </si>
-  <si>
-    <t>eeprof</t>
-  </si>
-  <si>
-    <t>cefic</t>
-  </si>
-  <si>
-    <t>mefic</t>
-  </si>
-  <si>
-    <t>ecefic</t>
-  </si>
-  <si>
-    <t>eefic</t>
-  </si>
-  <si>
-    <t>lecturer_id</t>
-  </si>
-  <si>
-    <t>id_number</t>
-  </si>
-  <si>
-    <t>lecturer_expertise</t>
-  </si>
-  <si>
-    <t>lecturer_status</t>
-  </si>
-  <si>
-    <t>lecturer_is_confirm</t>
-  </si>
-  <si>
-    <t>Ronald</t>
-  </si>
-  <si>
-    <t>CE graduate</t>
-  </si>
-  <si>
-    <t>rbbabaran@gmail.com</t>
-  </si>
-  <si>
-    <t>Marivic</t>
-  </si>
-  <si>
-    <t>Gannaban</t>
-  </si>
-  <si>
-    <t>ME graduate</t>
-  </si>
-  <si>
-    <t>mggatan@gmail.com</t>
-  </si>
-  <si>
-    <t>Rona Mae</t>
-  </si>
-  <si>
-    <t>ECE graduate</t>
-  </si>
-  <si>
-    <t>rgbabaran@gmail.com</t>
-  </si>
-  <si>
-    <t>Ralph Denver</t>
-  </si>
-  <si>
-    <t>EE graduate</t>
-  </si>
-  <si>
-    <t>rbgatan@gmail.com</t>
+    <t>Omarion</t>
+  </si>
+  <si>
+    <t>Ampaso</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Basic and General Mathematics</t>
+  </si>
+  <si>
+    <t>ramos@gmail.com</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Hydraulics Engineer</t>
+  </si>
+  <si>
+    <t>cabrera@gmail.com</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Sinagtala</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>Engineering Economics</t>
+  </si>
+  <si>
+    <t>cordero@gmail.com</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Mikel</t>
+  </si>
+  <si>
+    <t>Canencia</t>
+  </si>
+  <si>
+    <t>Power and Industrial Plant Engineering</t>
+  </si>
+  <si>
+    <t>canencia@gmail.com</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Choa</t>
+  </si>
+  <si>
+    <t>Aboitiz</t>
+  </si>
+  <si>
+    <t>Electrical Engineering Professional</t>
+  </si>
+  <si>
+    <t>aboitiz@gmail.com</t>
+  </si>
+  <si>
+    <t>Carola</t>
+  </si>
+  <si>
+    <t>Magos</t>
+  </si>
+  <si>
+    <t>Amparo</t>
+  </si>
+  <si>
+    <t>Machine Design</t>
+  </si>
+  <si>
+    <t>amparo@gmail.com</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Andrada</t>
+  </si>
+  <si>
+    <t>Electronics System</t>
+  </si>
+  <si>
+    <t>andrada@gmail.com</t>
+  </si>
+  <si>
+    <t>Brisa</t>
+  </si>
+  <si>
+    <t>Cabigas</t>
+  </si>
+  <si>
+    <t>Lingao</t>
+  </si>
+  <si>
+    <t>General Engineering</t>
+  </si>
+  <si>
+    <t>lingao@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1555,6 +1636,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1596,7 +1684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1627,6 +1715,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1910,9 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
-    </sheetView>
+    <sheetView topLeftCell="A62" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1922,37 +2009,37 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="9" max="9" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1960,28 +2047,28 @@
         <v>201511281</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1989,28 +2076,28 @@
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2018,28 +2105,28 @@
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2047,28 +2134,28 @@
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2076,28 +2163,28 @@
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2105,28 +2192,28 @@
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2134,28 +2221,28 @@
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2163,28 +2250,28 @@
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2192,28 +2279,28 @@
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2221,28 +2308,28 @@
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2250,28 +2337,28 @@
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2279,28 +2366,28 @@
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2308,28 +2395,28 @@
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2337,28 +2424,28 @@
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2366,28 +2453,28 @@
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2395,28 +2482,28 @@
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2424,28 +2511,28 @@
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2453,28 +2540,28 @@
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2482,28 +2569,28 @@
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2511,28 +2598,28 @@
         <v>201411736</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>93</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2540,28 +2627,28 @@
         <v>201311694</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>98</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2569,28 +2656,28 @@
         <v>201311355</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>102</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2598,28 +2685,28 @@
         <v>201412123</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2627,28 +2714,28 @@
         <v>201420066</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2656,28 +2743,28 @@
         <v>201412338</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" t="s">
-        <v>114</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2685,28 +2772,28 @@
         <v>201412224</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" t="s">
-        <v>118</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2714,28 +2801,28 @@
         <v>201410821</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2743,28 +2830,28 @@
         <v>201410704</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" t="s">
-        <v>126</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2772,28 +2859,28 @@
         <v>201412670</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>130</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2801,28 +2888,28 @@
         <v>201210843</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>134</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2830,28 +2917,28 @@
         <v>201410901</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" t="s">
-        <v>138</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2859,28 +2946,28 @@
         <v>201230137</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" t="s">
-        <v>142</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2888,28 +2975,28 @@
         <v>201410941</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2917,28 +3004,28 @@
         <v>201411107</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" t="s">
-        <v>150</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2946,28 +3033,28 @@
         <v>201412671</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" t="s">
-        <v>154</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2975,28 +3062,28 @@
         <v>201411266</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" t="s">
-        <v>158</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3004,28 +3091,28 @@
         <v>201412315</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" t="s">
-        <v>162</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3033,28 +3120,28 @@
         <v>201420024</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" t="s">
-        <v>166</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3062,28 +3149,28 @@
         <v>201310916</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" t="s">
-        <v>170</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3091,28 +3178,28 @@
         <v>201512691</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" t="s">
-        <v>174</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3120,28 +3207,28 @@
         <v>201410367</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" t="s">
-        <v>178</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3149,28 +3236,28 @@
         <v>201310584</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" t="s">
-        <v>181</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3178,28 +3265,28 @@
         <v>201710117</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" t="s">
-        <v>185</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3207,28 +3294,28 @@
         <v>201710447</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" t="s">
-        <v>189</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3236,28 +3323,28 @@
         <v>201710074</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s">
         <v>192</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" t="s">
-        <v>193</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3265,28 +3352,28 @@
         <v>201710424</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" t="s">
-        <v>197</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3294,28 +3381,28 @@
         <v>201710100</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G48" t="s">
-        <v>201</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3323,28 +3410,28 @@
         <v>201710453</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G49" t="s">
-        <v>205</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3352,28 +3439,28 @@
         <v>201710040</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" t="s">
-        <v>209</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -3381,28 +3468,28 @@
         <v>201710221</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" t="s">
-        <v>213</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3410,28 +3497,28 @@
         <v>201710258</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" t="s">
-        <v>216</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3439,28 +3526,28 @@
         <v>201710152</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G53" t="s">
-        <v>220</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3468,28 +3555,28 @@
         <v>201710057</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G54" t="s">
-        <v>224</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3497,28 +3584,28 @@
         <v>201710032</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" t="s">
         <v>226</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" t="s">
-        <v>227</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3526,28 +3613,28 @@
         <v>201710042</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G56" t="s">
-        <v>230</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3555,28 +3642,28 @@
         <v>201710400</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" t="s">
         <v>233</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G57" t="s">
-        <v>234</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3584,28 +3671,28 @@
         <v>201710458</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G58" t="s">
-        <v>238</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3613,28 +3700,28 @@
         <v>201710365</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G59" t="s">
         <v>240</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G59" t="s">
-        <v>241</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3642,28 +3729,28 @@
         <v>201011240</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G60" t="s">
-        <v>245</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3671,28 +3758,28 @@
         <v>201710347</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" t="s">
         <v>248</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G61" t="s">
-        <v>249</v>
-      </c>
       <c r="H61" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3700,28 +3787,28 @@
         <v>201710362</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G62" t="s">
-        <v>252</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3729,28 +3816,28 @@
         <v>201710368</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" t="s">
         <v>255</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G63" t="s">
-        <v>256</v>
-      </c>
       <c r="H63" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3758,28 +3845,28 @@
         <v>201710019</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" t="s">
         <v>259</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64" t="s">
-        <v>260</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3787,28 +3874,28 @@
         <v>201710338</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" t="s">
         <v>263</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" t="s">
-        <v>264</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -3816,28 +3903,28 @@
         <v>201710050</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G66" t="s">
         <v>267</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G66" t="s">
-        <v>268</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3845,28 +3932,28 @@
         <v>201710384</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" t="s">
-        <v>271</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -3874,28 +3961,28 @@
         <v>201710054</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" t="s">
         <v>274</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G68" t="s">
-        <v>275</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3903,28 +3990,28 @@
         <v>201710405</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G69" t="s">
         <v>278</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" t="s">
-        <v>279</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3932,28 +4019,28 @@
         <v>201710174</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" t="s">
         <v>282</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G70" t="s">
-        <v>283</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3961,28 +4048,28 @@
         <v>201710260</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" t="s">
         <v>286</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G71" t="s">
-        <v>287</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3990,28 +4077,28 @@
         <v>201011434</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" t="s">
         <v>290</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G72" t="s">
-        <v>291</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4019,28 +4106,28 @@
         <v>201412795</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" t="s">
         <v>294</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G73" t="s">
-        <v>295</v>
-      </c>
       <c r="H73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4048,28 +4135,28 @@
         <v>201710002</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s">
         <v>298</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G74" t="s">
-        <v>299</v>
-      </c>
       <c r="H74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4077,28 +4164,28 @@
         <v>201111222</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G75" t="s">
         <v>301</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G75" t="s">
-        <v>302</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -4106,28 +4193,28 @@
         <v>201710020</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" t="s">
         <v>304</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" t="s">
-        <v>305</v>
-      </c>
       <c r="H76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4135,28 +4222,28 @@
         <v>201710076</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G77" t="s">
         <v>308</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G77" t="s">
-        <v>309</v>
-      </c>
       <c r="H77" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4164,28 +4251,28 @@
         <v>201710341</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G78" t="s">
         <v>312</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G78" t="s">
-        <v>313</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4215,10 +4302,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" t="s">
         <v>470</v>
-      </c>
-      <c r="B1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4234,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4334,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="A1:K5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4257,37 +4344,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>314</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>315</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>316</v>
-      </c>
-      <c r="K1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4295,28 +4382,28 @@
         <v>201111111</v>
       </c>
       <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
         <v>318</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>319</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="G2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4330,28 +4417,28 @@
         <v>201122222</v>
       </c>
       <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
         <v>322</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>323</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="G3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4365,28 +4452,28 @@
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
         <v>326</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>327</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="G4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4400,28 +4487,28 @@
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
         <v>330</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>331</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="G5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4445,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -4456,34 +4543,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>453</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>454</v>
-      </c>
-      <c r="J1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4491,28 +4578,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" t="s">
         <v>456</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>457</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4523,28 +4610,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" t="s">
         <v>457</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4555,28 +4642,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" t="s">
         <v>457</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4587,28 +4674,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" t="s">
         <v>457</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4640,10 +4727,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
         <v>334</v>
-      </c>
-      <c r="B1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4651,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4659,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4667,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4675,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4683,7 +4770,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4703,13 +4790,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" t="s">
         <v>341</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>342</v>
-      </c>
-      <c r="C1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4717,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4728,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4739,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4750,7 +4837,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4761,7 +4848,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4772,7 +4859,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4783,7 +4870,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4794,7 +4881,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4805,7 +4892,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4816,7 +4903,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4827,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4838,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4849,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4860,7 +4947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4871,7 +4958,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4882,7 +4969,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4893,7 +4980,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4904,7 +4991,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4915,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4926,7 +5013,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4937,7 +5024,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4948,7 +5035,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4959,7 +5046,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4970,7 +5057,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4981,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4992,7 +5079,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5003,7 +5090,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5014,7 +5101,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5025,7 +5112,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5036,7 +5123,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5047,7 +5134,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5058,7 +5145,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5069,7 +5156,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5080,7 +5167,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5091,7 +5178,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5102,7 +5189,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -5113,7 +5200,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -5124,7 +5211,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -5135,7 +5222,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -5146,7 +5233,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -5157,7 +5244,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -5168,7 +5255,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -5179,7 +5266,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -5190,7 +5277,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5201,7 +5288,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -5212,7 +5299,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -5223,7 +5310,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5234,7 +5321,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -5245,7 +5332,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5256,7 +5343,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5267,7 +5354,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5278,7 +5365,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5289,7 +5376,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5300,7 +5387,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5311,7 +5398,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5322,7 +5409,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5333,7 +5420,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5344,7 +5431,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5355,7 +5442,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5366,7 +5453,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5377,7 +5464,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5388,7 +5475,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5399,7 +5486,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5410,7 +5497,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5421,7 +5508,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5432,7 +5519,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5443,7 +5530,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5454,7 +5541,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5465,7 +5552,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5476,7 +5563,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5487,7 +5574,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5498,7 +5585,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5509,7 +5596,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5520,7 +5607,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5531,7 +5618,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5542,7 +5629,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5553,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5564,7 +5651,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5575,7 +5662,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5586,7 +5673,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5597,7 +5684,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5608,7 +5695,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5619,7 +5706,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5630,7 +5717,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5641,7 +5728,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5652,7 +5739,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5663,7 +5750,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5674,7 +5761,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5685,7 +5772,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5711,22 +5798,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
-        <v>437</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5734,13 +5821,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -5751,13 +5838,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -5768,13 +5855,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
@@ -5785,16 +5872,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5802,16 +5889,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5819,16 +5906,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5836,13 +5923,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
@@ -5853,13 +5940,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -5870,13 +5957,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
@@ -5887,16 +5974,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5904,16 +5991,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,16 +6008,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5938,13 +6025,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -5955,13 +6042,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -5972,13 +6059,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -5989,16 +6076,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6006,16 +6093,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6023,16 +6110,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6040,16 +6127,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6057,16 +6144,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6074,13 +6161,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
@@ -6091,13 +6178,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -6108,13 +6195,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -6125,16 +6212,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6142,16 +6229,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6159,16 +6246,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -6188,10 +6275,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8241,10 +8328,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8261,34 +8348,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" t="s">
         <v>482</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>483</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>484</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>485</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8298,26 +8385,26 @@
       <c r="B2">
         <v>201011111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="D2" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -8330,26 +8417,26 @@
       <c r="B3">
         <v>201022222</v>
       </c>
-      <c r="C3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="C3" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>494</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8362,26 +8449,26 @@
       <c r="B4">
         <v>201033333</v>
       </c>
-      <c r="C4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="C4" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>499</v>
       </c>
       <c r="F4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -8394,28 +8481,156 @@
       <c r="B5">
         <v>201044444</v>
       </c>
-      <c r="C5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="C5" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>504</v>
       </c>
       <c r="F5" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>201055555</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>201066666</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>201077777</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>201088888</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
@@ -8425,8 +8640,13 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -8435,7 +8655,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8446,10 +8666,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" t="s">
         <v>464</v>
-      </c>
-      <c r="B1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8457,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8465,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8473,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8481,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,12 @@
     <sheet name="lecturer" sheetId="12" r:id="rId8"/>
     <sheet name="activity_details" sheetId="10" r:id="rId9"/>
     <sheet name="log_content" sheetId="11" r:id="rId10"/>
+    <sheet name="enrollment" sheetId="13" r:id="rId11"/>
+    <sheet name="course" sheetId="14" r:id="rId12"/>
+    <sheet name="offering" sheetId="16" r:id="rId13"/>
+    <sheet name="student" sheetId="17" r:id="rId14"/>
+    <sheet name="subject" sheetId="18" r:id="rId15"/>
+    <sheet name="topic" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="569">
   <si>
     <t>firstname</t>
   </si>
@@ -1609,6 +1615,132 @@
   </si>
   <si>
     <t>lingao@gmail.com</t>
+  </si>
+  <si>
+    <t>enrollment_id</t>
+  </si>
+  <si>
+    <t>enrollment_sy</t>
+  </si>
+  <si>
+    <t>enrollment_term</t>
+  </si>
+  <si>
+    <t>enrollment_is_active</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course_course_code</t>
+  </si>
+  <si>
+    <t>course_course_title</t>
+  </si>
+  <si>
+    <t>course_department</t>
+  </si>
+  <si>
+    <t>course_is_active</t>
+  </si>
+  <si>
+    <t>CECORREL1</t>
+  </si>
+  <si>
+    <t>CECORREL2</t>
+  </si>
+  <si>
+    <t>MECORREL1</t>
+  </si>
+  <si>
+    <t>MECORREL2</t>
+  </si>
+  <si>
+    <t>ECECORREL1</t>
+  </si>
+  <si>
+    <t>ECECORREL2</t>
+  </si>
+  <si>
+    <t>CE CORRELATION COURSE 1</t>
+  </si>
+  <si>
+    <t>CE CORRELATION COURSE 2</t>
+  </si>
+  <si>
+    <t>ME CORRELATION 1</t>
+  </si>
+  <si>
+    <t>ME CORRELATION 2</t>
+  </si>
+  <si>
+    <t>ECE CORRELATION COURSE 1</t>
+  </si>
+  <si>
+    <t>ECE CORRELATION COURSE 2</t>
+  </si>
+  <si>
+    <t>offering_id</t>
+  </si>
+  <si>
+    <t>offering_name</t>
+  </si>
+  <si>
+    <t>offering_department</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>V22</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>K22</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>student_num</t>
+  </si>
+  <si>
+    <t>student_department</t>
+  </si>
+  <si>
+    <t>student_is_blocked</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>subject_name</t>
+  </si>
+  <si>
+    <t>subject_description</t>
+  </si>
+  <si>
+    <t>topic_id</t>
+  </si>
+  <si>
+    <t>topic_name</t>
+  </si>
+  <si>
+    <t>topic_description</t>
+  </si>
+  <si>
+    <t>topic_done</t>
+  </si>
+  <si>
+    <t>subjet_id</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2015,7 +2149,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4283,6 +4417,7 @@
     <hyperlink ref="G8:G20" r:id="rId4" display="adre@fit.edu.ph"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4322,6 +4457,1799 @@
       </c>
       <c r="B3" t="s">
         <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>201111111</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>201111111</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>201122222</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>201122222</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>201133333</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>201133333</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>560</v>
+      </c>
+      <c r="L1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>201411491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>201511281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>201511438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>201410215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>201420096</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>201512590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>201311355</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>201311694</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>201412123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>201410704</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>201410821</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>201412224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>201310916</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>201410367</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s">
+        <v>462</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>201512691</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
+        <v>462</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>201710074</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>201710424</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>201710447</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" t="s">
+        <v>462</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8330,12 +10258,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="enrollment" sheetId="13" r:id="rId11"/>
     <sheet name="course" sheetId="14" r:id="rId12"/>
     <sheet name="offering" sheetId="16" r:id="rId13"/>
-    <sheet name="student" sheetId="17" r:id="rId14"/>
-    <sheet name="subject" sheetId="18" r:id="rId15"/>
-    <sheet name="topic" sheetId="19" r:id="rId16"/>
+    <sheet name="schedule" sheetId="20" r:id="rId14"/>
+    <sheet name="student" sheetId="17" r:id="rId15"/>
+    <sheet name="subject" sheetId="18" r:id="rId16"/>
+    <sheet name="topic" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="627">
   <si>
     <t>firstname</t>
   </si>
@@ -1671,12 +1672,6 @@
     <t>CE CORRELATION COURSE 2</t>
   </si>
   <si>
-    <t>ME CORRELATION 1</t>
-  </si>
-  <si>
-    <t>ME CORRELATION 2</t>
-  </si>
-  <si>
     <t>ECE CORRELATION COURSE 1</t>
   </si>
   <si>
@@ -1741,6 +1736,186 @@
   </si>
   <si>
     <t>subjet_id</t>
+  </si>
+  <si>
+    <t>ME CORRELATION COURSE 1</t>
+  </si>
+  <si>
+    <t>ME CORRELATION COURSE 2</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for CE department</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for ME department</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for ECE department</t>
+  </si>
+  <si>
+    <t>This is Algebra</t>
+  </si>
+  <si>
+    <t>This is Plane and Spherical Geometry</t>
+  </si>
+  <si>
+    <t>This is Plane and Spherical Trigo</t>
+  </si>
+  <si>
+    <t>This is Analytic Geometry</t>
+  </si>
+  <si>
+    <t>This is Differential Calculus</t>
+  </si>
+  <si>
+    <t>This is Integral Calculus</t>
+  </si>
+  <si>
+    <t>This is Differential Equation</t>
+  </si>
+  <si>
+    <t>This is Probability</t>
+  </si>
+  <si>
+    <t>This is Economy</t>
+  </si>
+  <si>
+    <t>This is Survey 1</t>
+  </si>
+  <si>
+    <t>This is Survey 2</t>
+  </si>
+  <si>
+    <t>This is Survey 3</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 1</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 2</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 3</t>
+  </si>
+  <si>
+    <t>Hydraulics 4</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 4</t>
+  </si>
+  <si>
+    <t>This is Geotech 2</t>
+  </si>
+  <si>
+    <t>This is Geotech 3</t>
+  </si>
+  <si>
+    <t>This is Geotech 4</t>
+  </si>
+  <si>
+    <t>This is Mechanics 1</t>
+  </si>
+  <si>
+    <t>This is Mechanics 2</t>
+  </si>
+  <si>
+    <t>This is Mechanics 3</t>
+  </si>
+  <si>
+    <t>This is Strength 1</t>
+  </si>
+  <si>
+    <t>This is Strength 2</t>
+  </si>
+  <si>
+    <t>This is Advance Math</t>
+  </si>
+  <si>
+    <t>This is Probability and Statistics</t>
+  </si>
+  <si>
+    <t>This is Chemistry</t>
+  </si>
+  <si>
+    <t>This is Physics</t>
+  </si>
+  <si>
+    <t>This is Trigonometry</t>
+  </si>
+  <si>
+    <t>This is Solid Mensuration</t>
+  </si>
+  <si>
+    <t>This is Statics and Dynamics</t>
+  </si>
+  <si>
+    <t>This is Strength of Materials</t>
+  </si>
+  <si>
+    <t>This is Thermodynamics</t>
+  </si>
+  <si>
+    <t>This is Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>This is Heat Transfer</t>
+  </si>
+  <si>
+    <t>This is Combustion Engineering</t>
+  </si>
+  <si>
+    <t>This is Machine Elements</t>
+  </si>
+  <si>
+    <t>This is Machine Shop Theory</t>
+  </si>
+  <si>
+    <t>This is Material Science Engineering</t>
+  </si>
+  <si>
+    <t>This is Mechanics</t>
+  </si>
+  <si>
+    <t>This is Vector Analysis and Electromagnets</t>
+  </si>
+  <si>
+    <t>This is Engineering Economy</t>
+  </si>
+  <si>
+    <t>This is Electrical Elements</t>
+  </si>
+  <si>
+    <t>This is DC and AC circuits</t>
+  </si>
+  <si>
+    <t>This is Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t>This is Microelectronics</t>
+  </si>
+  <si>
+    <t>This is Semiconductor Devices</t>
+  </si>
+  <si>
+    <t>This is Logic Circuits</t>
+  </si>
+  <si>
+    <t>This is Industrial Electronics and Power Supply</t>
+  </si>
+  <si>
+    <t>schedule_id</t>
+  </si>
+  <si>
+    <t>schedule_start_time</t>
+  </si>
+  <si>
+    <t>schedule_end_time</t>
+  </si>
+  <si>
+    <t>schedule_venue</t>
+  </si>
+  <si>
+    <t>T607</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2149,7 +2324,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4469,7 +4644,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4619,7 +4794,7 @@
         <v>539</v>
       </c>
       <c r="C4" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -4645,7 +4820,7 @@
         <v>540</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -4671,7 +4846,7 @@
         <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
         <v>462</v>
@@ -4697,7 +4872,7 @@
         <v>542</v>
       </c>
       <c r="C7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D7" t="s">
         <v>462</v>
@@ -4737,13 +4912,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" t="s">
         <v>549</v>
-      </c>
-      <c r="B1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C1" t="s">
-        <v>551</v>
       </c>
       <c r="D1" t="s">
         <v>532</v>
@@ -4757,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4774,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -4791,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -4808,7 +4983,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -4825,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
         <v>462</v>
@@ -4842,7 +5017,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C7" t="s">
         <v>462</v>
@@ -4861,10 +5036,173 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1521414000</v>
+      </c>
+      <c r="C2">
+        <v>1521421200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1521421200</v>
+      </c>
+      <c r="C3">
+        <v>1521428400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1520895600</v>
+      </c>
+      <c r="C4">
+        <v>1520902800</v>
+      </c>
+      <c r="D4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1520902800</v>
+      </c>
+      <c r="C5">
+        <v>1520910000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1520982000</v>
+      </c>
+      <c r="C6">
+        <v>1520989200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1520989200</v>
+      </c>
+      <c r="C7">
+        <v>1520996400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4875,7 +5213,7 @@
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" customWidth="1"/>
@@ -4886,7 +5224,7 @@
         <v>486</v>
       </c>
       <c r="B1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4907,16 +5245,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -4924,22 +5262,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>201411491</v>
+        <v>201410679</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4962,25 +5300,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>201511281</v>
+        <v>201411491</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -5000,22 +5338,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>201511438</v>
+        <v>201411851</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -5038,25 +5376,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>201410215</v>
+        <v>201511281</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -5068,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5076,22 +5414,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>201420096</v>
+        <v>201511438</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -5106,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -5114,22 +5452,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>201512590</v>
+        <v>201410215</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -5152,28 +5490,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>201311355</v>
+        <v>201410617</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -5182,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -5190,28 +5528,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>201311694</v>
+        <v>201411823</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -5220,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -5228,28 +5566,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>201412123</v>
+        <v>201420096</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -5258,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -5266,28 +5604,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>201410704</v>
+        <v>201512590</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -5296,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -5304,25 +5642,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>201410821</v>
+        <v>201311355</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
         <v>52</v>
@@ -5334,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -5342,25 +5680,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>201412224</v>
+        <v>201311694</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
         <v>52</v>
@@ -5372,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -5380,28 +5718,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>201310916</v>
+        <v>201412123</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -5410,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -5418,28 +5756,28 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>201410367</v>
+        <v>201412338</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -5448,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -5456,28 +5794,28 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>201512691</v>
+        <v>201420066</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="I16" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -5486,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -5494,28 +5832,28 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>201710074</v>
+        <v>201210843</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -5524,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -5532,28 +5870,28 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>201710424</v>
+        <v>201410704</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -5562,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5570,37 +5908,303 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>201710447</v>
+        <v>201410821</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>201412224</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>201412670</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>201310584</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" t="s">
         <v>462</v>
       </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>201310916</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" t="s">
+        <v>462</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>201410367</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" t="s">
+        <v>462</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>201512691</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>462</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>201710117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" t="s">
+        <v>462</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5608,19 +6212,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
@@ -5628,13 +6232,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
         <v>561</v>
-      </c>
-      <c r="B1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C1" t="s">
-        <v>563</v>
       </c>
       <c r="D1" t="s">
         <v>481</v>
@@ -5652,6 +6256,12 @@
       </c>
       <c r="B2" t="s">
         <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5667,6 +6277,9 @@
       <c r="B3" t="s">
         <v>437</v>
       </c>
+      <c r="C3" t="s">
+        <v>569</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -5681,6 +6294,9 @@
       <c r="B4" t="s">
         <v>439</v>
       </c>
+      <c r="C4" t="s">
+        <v>569</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -5695,6 +6311,12 @@
       <c r="B5" t="s">
         <v>449</v>
       </c>
+      <c r="C5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -5709,6 +6331,9 @@
       <c r="B6" t="s">
         <v>449</v>
       </c>
+      <c r="C6" t="s">
+        <v>570</v>
+      </c>
       <c r="E6">
         <v>4</v>
       </c>
@@ -5723,6 +6348,9 @@
       <c r="B7" t="s">
         <v>450</v>
       </c>
+      <c r="C7" t="s">
+        <v>570</v>
+      </c>
       <c r="E7">
         <v>4</v>
       </c>
@@ -5737,6 +6365,12 @@
       <c r="B8" t="s">
         <v>443</v>
       </c>
+      <c r="C8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
       <c r="E8">
         <v>5</v>
       </c>
@@ -5751,6 +6385,9 @@
       <c r="B9" t="s">
         <v>443</v>
       </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
       <c r="E9">
         <v>6</v>
       </c>
@@ -5765,6 +6402,9 @@
       <c r="B10" t="s">
         <v>446</v>
       </c>
+      <c r="C10" t="s">
+        <v>571</v>
+      </c>
       <c r="E10">
         <v>6</v>
       </c>
@@ -5778,6 +6418,9 @@
       </c>
       <c r="B11" t="s">
         <v>447</v>
+      </c>
+      <c r="C11" t="s">
+        <v>571</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -5791,12 +6434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5809,19 +6452,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" t="s">
         <v>564</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>565</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>566</v>
-      </c>
-      <c r="D1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E1" t="s">
-        <v>568</v>
       </c>
       <c r="F1" t="s">
         <v>340</v>
@@ -5833,6 +6476,9 @@
       </c>
       <c r="B2" t="s">
         <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>572</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5851,6 +6497,9 @@
       <c r="B3" t="s">
         <v>344</v>
       </c>
+      <c r="C3" t="s">
+        <v>573</v>
+      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -5868,6 +6517,9 @@
       <c r="B4" t="s">
         <v>345</v>
       </c>
+      <c r="C4" t="s">
+        <v>574</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -5885,6 +6537,9 @@
       <c r="B5" t="s">
         <v>346</v>
       </c>
+      <c r="C5" t="s">
+        <v>575</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -5902,6 +6557,9 @@
       <c r="B6" t="s">
         <v>347</v>
       </c>
+      <c r="C6" t="s">
+        <v>576</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -5919,6 +6577,9 @@
       <c r="B7" t="s">
         <v>348</v>
       </c>
+      <c r="C7" t="s">
+        <v>577</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -5936,6 +6597,9 @@
       <c r="B8" t="s">
         <v>349</v>
       </c>
+      <c r="C8" t="s">
+        <v>578</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -5953,6 +6617,9 @@
       <c r="B9" t="s">
         <v>350</v>
       </c>
+      <c r="C9" t="s">
+        <v>579</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -5970,6 +6637,9 @@
       <c r="B10" t="s">
         <v>351</v>
       </c>
+      <c r="C10" t="s">
+        <v>580</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -5987,6 +6657,9 @@
       <c r="B11" t="s">
         <v>352</v>
       </c>
+      <c r="C11" t="s">
+        <v>581</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -6004,6 +6677,9 @@
       <c r="B12" t="s">
         <v>353</v>
       </c>
+      <c r="C12" t="s">
+        <v>582</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -6021,6 +6697,9 @@
       <c r="B13" t="s">
         <v>354</v>
       </c>
+      <c r="C13" t="s">
+        <v>583</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -6038,6 +6717,9 @@
       <c r="B14" t="s">
         <v>343</v>
       </c>
+      <c r="C14" t="s">
+        <v>572</v>
+      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -6055,6 +6737,9 @@
       <c r="B15" t="s">
         <v>344</v>
       </c>
+      <c r="C15" t="s">
+        <v>573</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -6071,6 +6756,9 @@
       </c>
       <c r="B16" t="s">
         <v>345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>574</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -6089,6 +6777,9 @@
       <c r="B17" t="s">
         <v>346</v>
       </c>
+      <c r="C17" t="s">
+        <v>575</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -6106,6 +6797,9 @@
       <c r="B18" t="s">
         <v>347</v>
       </c>
+      <c r="C18" t="s">
+        <v>576</v>
+      </c>
       <c r="D18">
         <v>0</v>
       </c>
@@ -6123,6 +6817,9 @@
       <c r="B19" t="s">
         <v>348</v>
       </c>
+      <c r="C19" t="s">
+        <v>577</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
@@ -6140,6 +6837,9 @@
       <c r="B20" t="s">
         <v>349</v>
       </c>
+      <c r="C20" t="s">
+        <v>578</v>
+      </c>
       <c r="D20">
         <v>0</v>
       </c>
@@ -6157,6 +6857,9 @@
       <c r="B21" t="s">
         <v>350</v>
       </c>
+      <c r="C21" t="s">
+        <v>579</v>
+      </c>
       <c r="D21">
         <v>0</v>
       </c>
@@ -6174,6 +6877,9 @@
       <c r="B22" t="s">
         <v>351</v>
       </c>
+      <c r="C22" t="s">
+        <v>580</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -6191,6 +6897,9 @@
       <c r="B23" t="s">
         <v>352</v>
       </c>
+      <c r="C23" t="s">
+        <v>581</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -6208,6 +6917,9 @@
       <c r="B24" t="s">
         <v>353</v>
       </c>
+      <c r="C24" t="s">
+        <v>582</v>
+      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -6225,6 +6937,9 @@
       <c r="B25" t="s">
         <v>354</v>
       </c>
+      <c r="C25" t="s">
+        <v>583</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -6242,6 +6957,9 @@
       <c r="B26" t="s">
         <v>355</v>
       </c>
+      <c r="C26" t="s">
+        <v>584</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -6250,6 +6968,1546 @@
       </c>
       <c r="F26">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" t="s">
+        <v>585</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" t="s">
+        <v>586</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C29" t="s">
+        <v>588</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" t="s">
+        <v>589</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>590</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" t="s">
+        <v>592</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" t="s">
+        <v>593</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" t="s">
+        <v>594</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" t="s">
+        <v>595</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>366</v>
+      </c>
+      <c r="C37" t="s">
+        <v>596</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" t="s">
+        <v>572</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" t="s">
+        <v>576</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" t="s">
+        <v>577</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" t="s">
+        <v>597</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" t="s">
+        <v>599</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" t="s">
+        <v>600</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" t="s">
+        <v>601</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" t="s">
+        <v>602</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" t="s">
+        <v>572</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" t="s">
+        <v>575</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" t="s">
+        <v>576</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>578</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>597</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C56" t="s">
+        <v>598</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" t="s">
+        <v>599</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>379</v>
+      </c>
+      <c r="C58" t="s">
+        <v>600</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" t="s">
+        <v>601</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" t="s">
+        <v>602</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>418</v>
+      </c>
+      <c r="C61" t="s">
+        <v>603</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>381</v>
+      </c>
+      <c r="C62" t="s">
+        <v>604</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C63" t="s">
+        <v>605</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>384</v>
+      </c>
+      <c r="C64" t="s">
+        <v>606</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>419</v>
+      </c>
+      <c r="C65" t="s">
+        <v>607</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>420</v>
+      </c>
+      <c r="C66" t="s">
+        <v>608</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>421</v>
+      </c>
+      <c r="C67" t="s">
+        <v>609</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>422</v>
+      </c>
+      <c r="C68" t="s">
+        <v>610</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>423</v>
+      </c>
+      <c r="C69" t="s">
+        <v>611</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" t="s">
+        <v>572</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" t="s">
+        <v>573</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" t="s">
+        <v>574</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" t="s">
+        <v>575</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" t="s">
+        <v>576</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>577</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>578</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>376</v>
+      </c>
+      <c r="C77" t="s">
+        <v>597</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>377</v>
+      </c>
+      <c r="C78" t="s">
+        <v>598</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" t="s">
+        <v>599</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>379</v>
+      </c>
+      <c r="C80" t="s">
+        <v>600</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" t="s">
+        <v>572</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>344</v>
+      </c>
+      <c r="C82" t="s">
+        <v>573</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>345</v>
+      </c>
+      <c r="C83" t="s">
+        <v>574</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" t="s">
+        <v>575</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" t="s">
+        <v>576</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" t="s">
+        <v>577</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" t="s">
+        <v>578</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" t="s">
+        <v>597</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" t="s">
+        <v>598</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>378</v>
+      </c>
+      <c r="C90" t="s">
+        <v>599</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" t="s">
+        <v>600</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" t="s">
+        <v>612</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" t="s">
+        <v>604</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>382</v>
+      </c>
+      <c r="C94" t="s">
+        <v>605</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" t="s">
+        <v>613</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" t="s">
+        <v>614</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" t="s">
+        <v>615</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" t="s">
+        <v>616</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>617</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" t="s">
+        <v>618</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>619</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" t="s">
+        <v>620</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" t="s">
+        <v>621</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -1952,7 +1952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1977,6 +1977,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1991,7 +1997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2023,6 +2029,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2306,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2642,7 +2653,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="19">
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2671,7 +2682,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="19">
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2700,10 +2711,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="19">
         <v>201512491</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3222,7 +3233,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="21">
         <v>201410901</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3251,7 +3262,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="21">
         <v>201230137</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3280,7 +3291,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="21">
         <v>201410941</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5038,7 +5049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="633">
   <si>
     <t>firstname</t>
   </si>
@@ -1414,15 +1414,6 @@
     <t>rbmalaya@fit.edu.ph</t>
   </si>
   <si>
-    <t>Riza1</t>
-  </si>
-  <si>
-    <t>Riza2</t>
-  </si>
-  <si>
-    <t>Riza3</t>
-  </si>
-  <si>
     <t>ECE</t>
   </si>
   <si>
@@ -1916,6 +1907,33 @@
   </si>
   <si>
     <t>T607</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier </t>
+  </si>
+  <si>
+    <t>Ladera</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>Jovany</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Elvin</t>
+  </si>
+  <si>
+    <t>Manahan</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2335,7 +2353,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2932,7 +2950,7 @@
       <c r="F21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3487,7 +3505,7 @@
         <v>169</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -3516,7 +3534,7 @@
         <v>173</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -3545,7 +3563,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
@@ -3574,7 +3592,7 @@
         <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -3603,7 +3621,7 @@
         <v>184</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -3632,7 +3650,7 @@
         <v>188</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I45" t="s">
         <v>15</v>
@@ -3661,7 +3679,7 @@
         <v>192</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -3690,7 +3708,7 @@
         <v>196</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
@@ -3719,7 +3737,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -3748,7 +3766,7 @@
         <v>204</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I49" t="s">
         <v>15</v>
@@ -3777,7 +3795,7 @@
         <v>208</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I50" t="s">
         <v>15</v>
@@ -3806,7 +3824,7 @@
         <v>212</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I51" t="s">
         <v>15</v>
@@ -3835,7 +3853,7 @@
         <v>215</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
@@ -3864,7 +3882,7 @@
         <v>219</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -3893,7 +3911,7 @@
         <v>223</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -3922,7 +3940,7 @@
         <v>226</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -3951,7 +3969,7 @@
         <v>229</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -3980,7 +3998,7 @@
         <v>233</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -4009,7 +4027,7 @@
         <v>237</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
@@ -4601,9 +4619,10 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4:G7" r:id="rId3" display="adre@fit.edu.ph"/>
     <hyperlink ref="G8:G20" r:id="rId4" display="adre@fit.edu.ph"/>
+    <hyperlink ref="G21" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4623,10 +4642,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4642,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4668,16 +4687,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" t="s">
         <v>527</v>
-      </c>
-      <c r="B1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4685,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4721,22 +4740,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
         <v>532</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>533</v>
       </c>
-      <c r="C1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E1" t="s">
-        <v>536</v>
-      </c>
       <c r="F1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G1" t="s">
         <v>313</v>
@@ -4750,10 +4769,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4776,10 +4795,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4802,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -4828,10 +4847,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -4854,13 +4873,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4880,13 +4899,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4923,16 +4942,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E1" t="s">
         <v>452</v>
@@ -4943,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4960,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -4977,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -4994,7 +5013,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -5011,10 +5030,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -5028,10 +5047,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5065,22 +5084,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" t="s">
         <v>622</v>
       </c>
-      <c r="B1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" t="s">
-        <v>625</v>
-      </c>
       <c r="E1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5094,7 +5113,7 @@
         <v>1521421200</v>
       </c>
       <c r="D2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5114,7 +5133,7 @@
         <v>1521428400</v>
       </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -5134,7 +5153,7 @@
         <v>1520902800</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -5154,7 +5173,7 @@
         <v>1520910000</v>
       </c>
       <c r="D5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -5174,7 +5193,7 @@
         <v>1520989200</v>
       </c>
       <c r="D6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5194,7 +5213,7 @@
         <v>1520996400</v>
       </c>
       <c r="D7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5232,10 +5251,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -5256,16 +5275,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -6054,7 +6073,7 @@
         <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -6092,7 +6111,7 @@
         <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -6130,7 +6149,7 @@
         <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -6168,7 +6187,7 @@
         <v>173</v>
       </c>
       <c r="I25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -6206,7 +6225,7 @@
         <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -6243,19 +6262,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F1" t="s">
         <v>432</v>
@@ -6269,7 +6288,7 @@
         <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6289,7 +6308,7 @@
         <v>437</v>
       </c>
       <c r="C3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -6306,7 +6325,7 @@
         <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -6323,7 +6342,7 @@
         <v>449</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -6343,7 +6362,7 @@
         <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -6360,7 +6379,7 @@
         <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -6377,7 +6396,7 @@
         <v>443</v>
       </c>
       <c r="C8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -6397,7 +6416,7 @@
         <v>443</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -6414,7 +6433,7 @@
         <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -6431,7 +6450,7 @@
         <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -6463,19 +6482,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" t="s">
         <v>562</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>563</v>
-      </c>
-      <c r="C1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E1" t="s">
-        <v>566</v>
       </c>
       <c r="F1" t="s">
         <v>340</v>
@@ -6489,7 +6508,7 @@
         <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6509,7 +6528,7 @@
         <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6529,7 +6548,7 @@
         <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6549,7 +6568,7 @@
         <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6569,7 +6588,7 @@
         <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6589,7 +6608,7 @@
         <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6609,7 +6628,7 @@
         <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -6629,7 +6648,7 @@
         <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6649,7 +6668,7 @@
         <v>351</v>
       </c>
       <c r="C10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6669,7 +6688,7 @@
         <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6689,7 +6708,7 @@
         <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6709,7 +6728,7 @@
         <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6729,7 +6748,7 @@
         <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6749,7 +6768,7 @@
         <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -6769,7 +6788,7 @@
         <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -6789,7 +6808,7 @@
         <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -6809,7 +6828,7 @@
         <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -6829,7 +6848,7 @@
         <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6849,7 +6868,7 @@
         <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6869,7 +6888,7 @@
         <v>350</v>
       </c>
       <c r="C21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6889,7 +6908,7 @@
         <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6909,7 +6928,7 @@
         <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6929,7 +6948,7 @@
         <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6949,7 +6968,7 @@
         <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6969,7 +6988,7 @@
         <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -6989,7 +7008,7 @@
         <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7009,7 +7028,7 @@
         <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7026,10 +7045,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7049,7 +7068,7 @@
         <v>359</v>
       </c>
       <c r="C30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7069,7 +7088,7 @@
         <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7089,7 +7108,7 @@
         <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7109,7 +7128,7 @@
         <v>362</v>
       </c>
       <c r="C33" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7129,7 +7148,7 @@
         <v>363</v>
       </c>
       <c r="C34" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7149,7 +7168,7 @@
         <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7169,7 +7188,7 @@
         <v>365</v>
       </c>
       <c r="C36" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -7189,7 +7208,7 @@
         <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7209,7 +7228,7 @@
         <v>343</v>
       </c>
       <c r="C38" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -7229,7 +7248,7 @@
         <v>346</v>
       </c>
       <c r="C39" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -7249,7 +7268,7 @@
         <v>347</v>
       </c>
       <c r="C40" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7269,7 +7288,7 @@
         <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7289,7 +7308,7 @@
         <v>349</v>
       </c>
       <c r="C42" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7309,7 +7328,7 @@
         <v>376</v>
       </c>
       <c r="C43" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7329,7 +7348,7 @@
         <v>377</v>
       </c>
       <c r="C44" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7349,7 +7368,7 @@
         <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7369,7 +7388,7 @@
         <v>379</v>
       </c>
       <c r="C46" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7389,7 +7408,7 @@
         <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7409,7 +7428,7 @@
         <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7429,7 +7448,7 @@
         <v>418</v>
       </c>
       <c r="C49" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7449,7 +7468,7 @@
         <v>343</v>
       </c>
       <c r="C50" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7469,7 +7488,7 @@
         <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7489,7 +7508,7 @@
         <v>347</v>
       </c>
       <c r="C52" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7509,7 +7528,7 @@
         <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7529,7 +7548,7 @@
         <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7549,7 +7568,7 @@
         <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7569,7 +7588,7 @@
         <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7589,7 +7608,7 @@
         <v>378</v>
       </c>
       <c r="C57" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7609,7 +7628,7 @@
         <v>379</v>
       </c>
       <c r="C58" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7629,7 +7648,7 @@
         <v>416</v>
       </c>
       <c r="C59" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7649,7 +7668,7 @@
         <v>417</v>
       </c>
       <c r="C60" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -7669,7 +7688,7 @@
         <v>418</v>
       </c>
       <c r="C61" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7689,7 +7708,7 @@
         <v>381</v>
       </c>
       <c r="C62" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7709,7 +7728,7 @@
         <v>382</v>
       </c>
       <c r="C63" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7729,7 +7748,7 @@
         <v>384</v>
       </c>
       <c r="C64" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -7749,7 +7768,7 @@
         <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -7769,7 +7788,7 @@
         <v>420</v>
       </c>
       <c r="C66" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -7789,7 +7808,7 @@
         <v>421</v>
       </c>
       <c r="C67" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -7809,7 +7828,7 @@
         <v>422</v>
       </c>
       <c r="C68" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -7829,7 +7848,7 @@
         <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -7849,7 +7868,7 @@
         <v>343</v>
       </c>
       <c r="C70" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -7869,7 +7888,7 @@
         <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7889,7 +7908,7 @@
         <v>345</v>
       </c>
       <c r="C72" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7909,7 +7928,7 @@
         <v>346</v>
       </c>
       <c r="C73" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7929,7 +7948,7 @@
         <v>347</v>
       </c>
       <c r="C74" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7949,7 +7968,7 @@
         <v>348</v>
       </c>
       <c r="C75" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7969,7 +7988,7 @@
         <v>349</v>
       </c>
       <c r="C76" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -7989,7 +8008,7 @@
         <v>376</v>
       </c>
       <c r="C77" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -8009,7 +8028,7 @@
         <v>377</v>
       </c>
       <c r="C78" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -8029,7 +8048,7 @@
         <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -8049,7 +8068,7 @@
         <v>379</v>
       </c>
       <c r="C80" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -8069,7 +8088,7 @@
         <v>343</v>
       </c>
       <c r="C81" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -8089,7 +8108,7 @@
         <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -8109,7 +8128,7 @@
         <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -8129,7 +8148,7 @@
         <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -8149,7 +8168,7 @@
         <v>347</v>
       </c>
       <c r="C85" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8169,7 +8188,7 @@
         <v>348</v>
       </c>
       <c r="C86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -8189,7 +8208,7 @@
         <v>349</v>
       </c>
       <c r="C87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -8209,7 +8228,7 @@
         <v>376</v>
       </c>
       <c r="C88" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -8229,7 +8248,7 @@
         <v>377</v>
       </c>
       <c r="C89" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -8249,7 +8268,7 @@
         <v>378</v>
       </c>
       <c r="C90" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -8269,7 +8288,7 @@
         <v>379</v>
       </c>
       <c r="C91" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8289,7 +8308,7 @@
         <v>380</v>
       </c>
       <c r="C92" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -8309,7 +8328,7 @@
         <v>381</v>
       </c>
       <c r="C93" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -8329,7 +8348,7 @@
         <v>382</v>
       </c>
       <c r="C94" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -8349,7 +8368,7 @@
         <v>400</v>
       </c>
       <c r="C95" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -8369,7 +8388,7 @@
         <v>401</v>
       </c>
       <c r="C96" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -8389,7 +8408,7 @@
         <v>402</v>
       </c>
       <c r="C97" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -8409,7 +8428,7 @@
         <v>403</v>
       </c>
       <c r="C98" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -8429,7 +8448,7 @@
         <v>404</v>
       </c>
       <c r="C99" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8449,7 +8468,7 @@
         <v>405</v>
       </c>
       <c r="C100" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -8469,7 +8488,7 @@
         <v>406</v>
       </c>
       <c r="C101" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -8489,7 +8508,7 @@
         <v>407</v>
       </c>
       <c r="C102" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -8509,7 +8528,7 @@
         <v>408</v>
       </c>
       <c r="C103" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -8594,10 +8613,10 @@
         <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -8629,10 +8648,10 @@
         <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -8658,16 +8677,16 @@
         <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>328</v>
       </c>
       <c r="G4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -8699,10 +8718,10 @@
         <v>332</v>
       </c>
       <c r="G5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -8729,12 +8748,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="7" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8772,7 +8792,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>201200001</v>
       </c>
       <c r="B2" t="s">
         <v>455</v>
@@ -8784,10 +8804,10 @@
         <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>458</v>
@@ -8804,22 +8824,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>201200002</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>626</v>
       </c>
       <c r="E3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>458</v>
@@ -8836,22 +8856,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>201200003</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>628</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>629</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>458</v>
@@ -8860,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -8868,22 +8888,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>201200004</v>
       </c>
       <c r="B5" t="s">
-        <v>461</v>
+        <v>630</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>631</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>632</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>458</v>
@@ -10225,7 +10245,7 @@
         <v>443</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>438</v>
@@ -10242,7 +10262,7 @@
         <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>438</v>
@@ -10259,7 +10279,7 @@
         <v>443</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>438</v>
@@ -10276,7 +10296,7 @@
         <v>446</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>438</v>
@@ -10293,7 +10313,7 @@
         <v>446</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>438</v>
@@ -10310,7 +10330,7 @@
         <v>447</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>438</v>
@@ -10327,7 +10347,7 @@
         <v>447</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>438</v>
@@ -10344,7 +10364,7 @@
         <v>448</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>438</v>
@@ -12546,10 +12566,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -12561,19 +12581,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -12584,19 +12604,19 @@
         <v>201011111</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" t="s">
         <v>487</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G2" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="F2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -12616,19 +12636,19 @@
         <v>201022222</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" t="s">
         <v>492</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="F3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -12648,19 +12668,19 @@
         <v>201033333</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F4" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="G4" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" t="s">
-        <v>500</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -12680,19 +12700,19 @@
         <v>201044444</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F5" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="G5" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="F5" t="s">
-        <v>505</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -12712,19 +12732,19 @@
         <v>201055555</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -12744,19 +12764,19 @@
         <v>201066666</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="G7" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -12776,19 +12796,19 @@
         <v>201077777</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="G8" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -12808,19 +12828,19 @@
         <v>201088888</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="G9" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -12864,10 +12884,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12875,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12883,7 +12903,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -12891,7 +12911,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -12899,7 +12919,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial.xlsx
+++ b/excel/initial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -2335,14 +2335,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
@@ -8748,7 +8748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
